--- a/server/corelib/lang/all_lang_V1.8.xlsx
+++ b/server/corelib/lang/all_lang_V1.8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\digiCenter\server\corelib\lang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED4A6D45-0D58-45E3-AC25-3AEBA6CE05B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B4CA437-CDB9-4B91-814B-2AB8AFB7861F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1295" uniqueCount="1190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1310" uniqueCount="1205">
   <si>
     <t>name</t>
   </si>
@@ -3938,6 +3938,60 @@
   </si>
   <si>
     <t>温控箱IP</t>
+  </si>
+  <si>
+    <t>run_batchstats</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>預估時間與溫度範圍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Approx. ranges of time and temperature</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ca.. Bereiche von Zeit und Temperatur</t>
+  </si>
+  <si>
+    <t>预估时间与温度范围</t>
+  </si>
+  <si>
+    <t>exceed_max_temp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>exceed_min_temp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maximun temperature is out of range</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Minimum temperature is out of range</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>超過最大溫度上限</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>超過最小溫度下限</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maximun Temperatur des Bereichs aus</t>
+  </si>
+  <si>
+    <t>超过最大温度上限</t>
+  </si>
+  <si>
+    <t>Tiefsttemperatur ist Bereich aus</t>
+  </si>
+  <si>
+    <t>超过最小温度下限</t>
   </si>
 </sst>
 </file>
@@ -4040,7 +4094,27 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="59">
+  <dxfs count="61">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -4965,10 +5039,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F259"/>
+  <dimension ref="A1:F262"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E153" sqref="E153"/>
+    <sheetView tabSelected="1" topLeftCell="A237" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D253" sqref="D253"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6858,7 +6932,7 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>584</v>
@@ -6878,7 +6952,7 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>585</v>
@@ -6898,7 +6972,7 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>570</v>
@@ -6918,7 +6992,7 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>49</v>
@@ -6938,7 +7012,7 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>50</v>
@@ -6958,7 +7032,7 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>51</v>
@@ -6978,7 +7052,7 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>52</v>
@@ -6998,7 +7072,7 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>53</v>
@@ -7018,7 +7092,7 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>54</v>
@@ -7038,7 +7112,7 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>55</v>
@@ -7058,7 +7132,7 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>56</v>
@@ -7078,7 +7152,7 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>57</v>
@@ -7098,7 +7172,7 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>58</v>
@@ -7118,7 +7192,7 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>59</v>
@@ -7138,7 +7212,7 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>60</v>
@@ -7158,7 +7232,7 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>61</v>
@@ -7178,7 +7252,7 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>62</v>
@@ -7198,7 +7272,7 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>63</v>
@@ -7218,7 +7292,7 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>64</v>
@@ -7238,7 +7312,7 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>65</v>
@@ -7258,7 +7332,7 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>66</v>
@@ -7278,7 +7352,7 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>67</v>
@@ -7298,7 +7372,7 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>68</v>
@@ -7318,7 +7392,7 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>69</v>
@@ -7338,7 +7412,7 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>70</v>
@@ -7358,7 +7432,7 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>71</v>
@@ -7378,7 +7452,7 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>72</v>
@@ -7398,7 +7472,7 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>73</v>
@@ -7418,7 +7492,7 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>74</v>
@@ -7438,7 +7512,7 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>75</v>
@@ -7458,7 +7532,7 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>76</v>
@@ -7478,7 +7552,7 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>77</v>
@@ -7498,7 +7572,7 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>78</v>
@@ -7518,7 +7592,7 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>79</v>
@@ -7538,7 +7612,7 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>80</v>
@@ -7558,7 +7632,7 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>81</v>
@@ -7578,7 +7652,7 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>82</v>
@@ -7598,7 +7672,7 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>83</v>
@@ -7618,7 +7692,7 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>84</v>
@@ -7638,7 +7712,7 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>85</v>
@@ -7658,7 +7732,7 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>86</v>
@@ -7678,7 +7752,7 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>87</v>
@@ -7698,7 +7772,7 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>88</v>
@@ -7718,7 +7792,7 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>89</v>
@@ -7738,7 +7812,7 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>90</v>
@@ -7758,7 +7832,7 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>91</v>
@@ -7778,7 +7852,7 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>92</v>
@@ -7798,7 +7872,7 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>93</v>
@@ -7818,7 +7892,7 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>94</v>
@@ -7838,7 +7912,7 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>95</v>
@@ -7858,7 +7932,7 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>96</v>
@@ -7878,7 +7952,7 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>97</v>
@@ -7898,7 +7972,7 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>98</v>
@@ -7918,7 +7992,7 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>99</v>
@@ -7938,7 +8012,7 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>100</v>
@@ -7958,7 +8032,7 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>514</v>
@@ -7978,7 +8052,7 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>516</v>
@@ -7998,7 +8072,7 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>515</v>
@@ -8018,7 +8092,7 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>519</v>
@@ -8038,7 +8112,7 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>101</v>
@@ -8058,7 +8132,7 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>102</v>
@@ -8078,7 +8152,7 @@
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>103</v>
@@ -8098,7 +8172,7 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>104</v>
@@ -8118,7 +8192,7 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>105</v>
@@ -8138,7 +8212,7 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>106</v>
@@ -8158,7 +8232,7 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>107</v>
@@ -8178,7 +8252,7 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>108</v>
@@ -8198,7 +8272,7 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>109</v>
@@ -8218,7 +8292,7 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>110</v>
@@ -8238,7 +8312,7 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>487</v>
@@ -8258,7 +8332,7 @@
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>490</v>
@@ -8278,7 +8352,7 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B166" s="3" t="s">
         <v>498</v>
@@ -8298,7 +8372,7 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B167" s="3" t="s">
         <v>499</v>
@@ -8318,7 +8392,7 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B168" s="3" t="s">
         <v>495</v>
@@ -8338,7 +8412,7 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B169" s="3" t="s">
         <v>496</v>
@@ -8358,7 +8432,7 @@
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B170" s="3" t="s">
         <v>979</v>
@@ -8378,7 +8452,7 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B171" s="3" t="s">
         <v>503</v>
@@ -8398,7 +8472,7 @@
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B172" s="3" t="s">
         <v>504</v>
@@ -8418,7 +8492,7 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B173" s="3" t="s">
         <v>521</v>
@@ -8438,7 +8512,7 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B174" s="3" t="s">
         <v>522</v>
@@ -8458,7 +8532,7 @@
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B175" s="3" t="s">
         <v>737</v>
@@ -8478,7 +8552,7 @@
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B176" s="3" t="s">
         <v>526</v>
@@ -8498,7 +8572,7 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B177" s="3" t="s">
         <v>529</v>
@@ -8518,7 +8592,7 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B178" s="3" t="s">
         <v>530</v>
@@ -8538,7 +8612,7 @@
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>605</v>
@@ -8558,7 +8632,7 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>676</v>
@@ -8578,7 +8652,7 @@
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>606</v>
@@ -8598,7 +8672,7 @@
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>607</v>
@@ -8618,7 +8692,7 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>608</v>
@@ -8638,7 +8712,7 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>609</v>
@@ -8658,7 +8732,7 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B185" s="1" t="s">
         <v>610</v>
@@ -8678,7 +8752,7 @@
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>611</v>
@@ -8698,7 +8772,7 @@
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>612</v>
@@ -8718,7 +8792,7 @@
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>906</v>
@@ -8738,7 +8812,7 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B189" s="1" t="s">
         <v>613</v>
@@ -8758,7 +8832,7 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>614</v>
@@ -8778,7 +8852,7 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>615</v>
@@ -8798,7 +8872,7 @@
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B192" s="1" t="s">
         <v>616</v>
@@ -8818,7 +8892,7 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B193" s="1" t="s">
         <v>617</v>
@@ -8838,7 +8912,7 @@
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B194" s="1" t="s">
         <v>618</v>
@@ -8858,7 +8932,7 @@
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B195" s="1" t="s">
         <v>1024</v>
@@ -8878,7 +8952,7 @@
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B196" s="1" t="s">
         <v>619</v>
@@ -8898,7 +8972,7 @@
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>620</v>
@@ -8918,7 +8992,7 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>621</v>
@@ -8938,7 +9012,7 @@
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B199" s="1" t="s">
         <v>622</v>
@@ -8958,7 +9032,7 @@
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B200" s="1" t="s">
         <v>623</v>
@@ -8978,7 +9052,7 @@
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B201" s="1" t="s">
         <v>624</v>
@@ -8998,7 +9072,7 @@
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B202" s="1" t="s">
         <v>625</v>
@@ -9018,7 +9092,7 @@
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B203" s="1" t="s">
         <v>626</v>
@@ -9038,7 +9112,7 @@
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B204" s="1" t="s">
         <v>627</v>
@@ -9058,7 +9132,7 @@
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B205" s="1" t="s">
         <v>628</v>
@@ -9078,7 +9152,7 @@
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B206" s="1" t="s">
         <v>908</v>
@@ -9098,7 +9172,7 @@
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B207" s="1" t="s">
         <v>907</v>
@@ -9118,7 +9192,7 @@
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B208" s="1" t="s">
         <v>684</v>
@@ -9138,7 +9212,7 @@
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B209" s="1" t="s">
         <v>683</v>
@@ -9158,7 +9232,7 @@
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B210" s="1" t="s">
         <v>974</v>
@@ -9178,7 +9252,7 @@
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B211" s="1" t="s">
         <v>909</v>
@@ -9198,7 +9272,7 @@
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B212" s="1" t="s">
         <v>910</v>
@@ -9218,7 +9292,7 @@
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" s="2">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="B213" s="1" t="s">
         <v>1040</v>
@@ -9238,7 +9312,7 @@
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B214" s="1" t="s">
         <v>919</v>
@@ -9258,7 +9332,7 @@
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" s="2">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B215" s="1" t="s">
         <v>918</v>
@@ -9278,7 +9352,7 @@
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" s="2">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B216" s="1" t="s">
         <v>929</v>
@@ -9298,7 +9372,7 @@
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B217" s="1" t="s">
         <v>932</v>
@@ -9318,7 +9392,7 @@
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" s="2">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B218" s="1" t="s">
         <v>933</v>
@@ -9338,7 +9412,7 @@
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B219" s="1" t="s">
         <v>941</v>
@@ -9358,7 +9432,7 @@
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" s="2">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B220" s="1" t="s">
         <v>945</v>
@@ -9378,7 +9452,7 @@
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B221" s="1" t="s">
         <v>950</v>
@@ -9398,7 +9472,7 @@
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" s="2">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B222" s="1" t="s">
         <v>948</v>
@@ -9418,7 +9492,7 @@
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B223" s="1" t="s">
         <v>951</v>
@@ -9438,7 +9512,7 @@
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B224" s="1" t="s">
         <v>954</v>
@@ -9458,7 +9532,7 @@
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B225" s="1" t="s">
         <v>965</v>
@@ -9478,7 +9552,7 @@
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" s="2">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B226" s="1" t="s">
         <v>970</v>
@@ -9498,7 +9572,7 @@
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" s="2">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B227" s="1" t="s">
         <v>987</v>
@@ -9518,7 +9592,7 @@
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B228" s="1" t="s">
         <v>990</v>
@@ -9538,7 +9612,7 @@
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B229" s="1" t="s">
         <v>993</v>
@@ -9558,7 +9632,7 @@
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" s="2">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B230" s="1" t="s">
         <v>1029</v>
@@ -9578,7 +9652,7 @@
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B231" s="1" t="s">
         <v>1030</v>
@@ -9598,7 +9672,7 @@
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B232" s="1" t="s">
         <v>998</v>
@@ -9618,7 +9692,7 @@
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="B233" s="1" t="s">
         <v>999</v>
@@ -9638,7 +9712,7 @@
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" s="2">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B234" s="1" t="s">
         <v>1000</v>
@@ -9658,7 +9732,7 @@
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B235" s="1" t="s">
         <v>1016</v>
@@ -9678,7 +9752,7 @@
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B236" s="1" t="s">
         <v>1031</v>
@@ -9698,7 +9772,7 @@
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" s="2">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B237" s="1" t="s">
         <v>1044</v>
@@ -9718,7 +9792,7 @@
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" s="2">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B238" s="1" t="s">
         <v>1045</v>
@@ -9738,7 +9812,7 @@
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" s="2">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B239" s="1" t="s">
         <v>1046</v>
@@ -9758,7 +9832,7 @@
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" s="2">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B240" s="1" t="s">
         <v>1058</v>
@@ -9778,7 +9852,7 @@
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" s="2">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B241" s="1" t="s">
         <v>1062</v>
@@ -9798,7 +9872,7 @@
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" s="2">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B242" s="1" t="s">
         <v>1067</v>
@@ -9818,7 +9892,7 @@
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" s="2">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B243" s="1" t="s">
         <v>1069</v>
@@ -9838,7 +9912,7 @@
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" s="2">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B244" s="1" t="s">
         <v>1070</v>
@@ -9858,7 +9932,7 @@
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" s="2">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B245" s="1" t="s">
         <v>1071</v>
@@ -9878,7 +9952,7 @@
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" s="2">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="B246" s="1" t="s">
         <v>1072</v>
@@ -9898,7 +9972,7 @@
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" s="2">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B247" s="1" t="s">
         <v>1073</v>
@@ -9918,7 +9992,7 @@
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" s="2">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B248" s="1" t="s">
         <v>1081</v>
@@ -9938,7 +10012,7 @@
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" s="2">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B249" s="1" t="s">
         <v>1082</v>
@@ -9958,7 +10032,7 @@
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" s="2">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B250" s="1" t="s">
         <v>1083</v>
@@ -9978,7 +10052,7 @@
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" s="2">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B251" s="1" t="s">
         <v>1097</v>
@@ -9998,7 +10072,7 @@
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" s="2">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B252" s="1" t="s">
         <v>1124</v>
@@ -10018,7 +10092,7 @@
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" s="2">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B253" s="1" t="s">
         <v>1125</v>
@@ -10038,7 +10112,7 @@
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" s="2">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B254" s="1" t="s">
         <v>1126</v>
@@ -10058,7 +10132,7 @@
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B255" s="1" t="s">
         <v>1080</v>
@@ -10078,7 +10152,7 @@
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" s="2">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="B256" s="1" t="s">
         <v>1127</v>
@@ -10098,7 +10172,7 @@
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" s="2">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="B257" s="1" t="s">
         <v>1128</v>
@@ -10118,7 +10192,7 @@
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" s="2">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="B258" s="1" t="s">
         <v>1136</v>
@@ -10138,7 +10212,7 @@
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" s="2">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B259" s="1" t="s">
         <v>1141</v>
@@ -10156,299 +10230,369 @@
         <v>1145</v>
       </c>
     </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A260" s="2">
+        <v>259</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C260" s="1" t="s">
+        <v>1192</v>
+      </c>
+      <c r="D260" s="1" t="s">
+        <v>1191</v>
+      </c>
+      <c r="E260" s="1" t="s">
+        <v>1193</v>
+      </c>
+      <c r="F260" s="1" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A261" s="2">
+        <v>260</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>1197</v>
+      </c>
+      <c r="D261" s="6" t="s">
+        <v>1199</v>
+      </c>
+      <c r="E261" s="1" t="s">
+        <v>1201</v>
+      </c>
+      <c r="F261" s="1" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A262" s="2">
+        <v>261</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>1198</v>
+      </c>
+      <c r="D262" s="1" t="s">
+        <v>1200</v>
+      </c>
+      <c r="E262" s="1" t="s">
+        <v>1203</v>
+      </c>
+      <c r="F262" s="1" t="s">
+        <v>1204</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="B168:E169 B1:E3 B154:E155 B97:E152 B69:E72 B5:E6 B17:E29 B179:E200 B211:D211 B217:E218 B75:E84 B257:E258 D253:E253 C243:E248 B260:E1048576 B259:C259 B8:E14 B7:D7 B15:D15 B31:E38 B30:D30 B40:E46 B39:D39 B48:E66 B47:D47 B86:E89 B85:D85 B157:E159 B156:D156 B161:E161 B160:D160 B164:E166 B162:D163 B202:E205 B201:D201 B207:E207 B206:D206 B214:D216 B220:E220 B219:D219 B222:E222 B221:D221 B224:E225 B223:D223 B227:E230 B226:D226 B233:E233 B231:D232 B235:E235 B234:D234 B237:E241 B236:D236 C242:D242 C250:E251 C249:D249 D252 D256:E256 D254:D255">
+  <conditionalFormatting sqref="B168:E169 B1:E3 B154:E155 B97:E152 B69:E72 B5:E6 B17:E29 B179:E200 B211:D211 B217:E218 B75:E84 B257:E258 D253:E253 C243:E248 B259:C259 B8:E14 B7:D7 B15:D15 B31:E38 B30:D30 B40:E46 B39:D39 B48:E66 B47:D47 B86:E89 B85:D85 B157:E159 B156:D156 B161:E161 B160:D160 B164:E166 B162:D163 B202:E205 B201:D201 B207:E207 B206:D206 B214:D216 B220:E220 B219:D219 B222:E222 B221:D221 B224:E225 B223:D223 B227:E230 B226:D226 B233:E233 B231:D232 B235:E235 B234:D234 B237:E241 B236:D236 C242:D242 C250:E251 C249:D249 D252 D256:E256 D254:D255 B260 B261:E1048576">
+    <cfRule type="cellIs" dxfId="60" priority="63" operator="equal">
+      <formula>"TBD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B167:E167">
+    <cfRule type="cellIs" dxfId="59" priority="62" operator="equal">
+      <formula>"TBD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B171:E172">
     <cfRule type="cellIs" dxfId="58" priority="61" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B167:E167">
+  <conditionalFormatting sqref="B153:D153">
     <cfRule type="cellIs" dxfId="57" priority="60" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B171:E172">
+  <conditionalFormatting sqref="B173:D173 B174 D174:E174">
     <cfRule type="cellIs" dxfId="56" priority="59" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B153:D153">
+  <conditionalFormatting sqref="B175:E175 B176 D176">
     <cfRule type="cellIs" dxfId="55" priority="58" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B173:D173 B174 D174:E174">
+  <conditionalFormatting sqref="B177:E177 B178:D178">
     <cfRule type="cellIs" dxfId="54" priority="57" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B175:E175 B176 D176">
+  <conditionalFormatting sqref="C176">
     <cfRule type="cellIs" dxfId="53" priority="56" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B177:E177 B178:D178">
+  <conditionalFormatting sqref="C174">
     <cfRule type="cellIs" dxfId="52" priority="55" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C176">
+  <conditionalFormatting sqref="B90:E90">
     <cfRule type="cellIs" dxfId="51" priority="54" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C174">
+  <conditionalFormatting sqref="B91:D93">
     <cfRule type="cellIs" dxfId="50" priority="53" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B90:E90">
+  <conditionalFormatting sqref="E91:E92">
     <cfRule type="cellIs" dxfId="49" priority="52" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B91:D93">
+  <conditionalFormatting sqref="B94:D94 B96:D96">
     <cfRule type="cellIs" dxfId="48" priority="51" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E91:E92">
+  <conditionalFormatting sqref="E96">
     <cfRule type="cellIs" dxfId="47" priority="50" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B94:D94 B96:D96">
+  <conditionalFormatting sqref="B4:E4">
     <cfRule type="cellIs" dxfId="46" priority="49" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E96">
+  <conditionalFormatting sqref="B67:E68">
     <cfRule type="cellIs" dxfId="45" priority="48" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:E4">
+  <conditionalFormatting sqref="B208:E209">
     <cfRule type="cellIs" dxfId="44" priority="47" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B67:E68">
+  <conditionalFormatting sqref="B73:D74">
     <cfRule type="cellIs" dxfId="43" priority="46" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B208:E209">
+  <conditionalFormatting sqref="E74">
     <cfRule type="cellIs" dxfId="42" priority="45" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B73:D74">
+  <conditionalFormatting sqref="E73">
     <cfRule type="cellIs" dxfId="41" priority="44" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E74">
+  <conditionalFormatting sqref="B16:D16">
     <cfRule type="cellIs" dxfId="40" priority="43" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E73">
+  <conditionalFormatting sqref="E93">
     <cfRule type="cellIs" dxfId="39" priority="42" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B16:D16">
+  <conditionalFormatting sqref="B207:E207">
     <cfRule type="cellIs" dxfId="38" priority="41" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E93">
+  <conditionalFormatting sqref="B206:D206">
     <cfRule type="cellIs" dxfId="37" priority="40" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B207:E207">
+  <conditionalFormatting sqref="F168:F169 F1:F3 F154:F166 F97:F152 F69:F72 F5:F15 F75:F89 F17:F66 F179:F207 F211 F214:F258 F261:F1048576">
     <cfRule type="cellIs" dxfId="36" priority="39" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B206:D206">
+  <conditionalFormatting sqref="F167">
     <cfRule type="cellIs" dxfId="35" priority="38" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F168:F169 F1:F3 F154:F166 F97:F152 F69:F72 F5:F15 F75:F89 F17:F66 F179:F207 F211 F214:F258 F260:F1048576">
+  <conditionalFormatting sqref="F171:F172">
     <cfRule type="cellIs" dxfId="34" priority="37" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F167">
+  <conditionalFormatting sqref="F153">
     <cfRule type="cellIs" dxfId="33" priority="36" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F171:F172">
+  <conditionalFormatting sqref="F173:F174">
     <cfRule type="cellIs" dxfId="32" priority="35" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F153">
+  <conditionalFormatting sqref="F175:F176">
     <cfRule type="cellIs" dxfId="31" priority="34" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F173:F174">
+  <conditionalFormatting sqref="F177:F178">
     <cfRule type="cellIs" dxfId="30" priority="33" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F175:F176">
+  <conditionalFormatting sqref="F90">
     <cfRule type="cellIs" dxfId="29" priority="32" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F177:F178">
+  <conditionalFormatting sqref="F91:F93">
     <cfRule type="cellIs" dxfId="28" priority="31" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F90">
+  <conditionalFormatting sqref="F94 F96">
     <cfRule type="cellIs" dxfId="27" priority="30" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F91:F93">
+  <conditionalFormatting sqref="F4">
     <cfRule type="cellIs" dxfId="26" priority="29" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F94 F96">
+  <conditionalFormatting sqref="F67:F68">
     <cfRule type="cellIs" dxfId="25" priority="28" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4">
+  <conditionalFormatting sqref="F208:F209">
     <cfRule type="cellIs" dxfId="24" priority="27" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F67:F68">
+  <conditionalFormatting sqref="F73:F74">
     <cfRule type="cellIs" dxfId="23" priority="26" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F208:F209">
+  <conditionalFormatting sqref="F16">
     <cfRule type="cellIs" dxfId="22" priority="25" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F73:F74">
+  <conditionalFormatting sqref="F207">
     <cfRule type="cellIs" dxfId="21" priority="24" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F16">
+  <conditionalFormatting sqref="F206">
     <cfRule type="cellIs" dxfId="20" priority="23" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F207">
-    <cfRule type="cellIs" dxfId="19" priority="22" operator="equal">
-      <formula>"TBD"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F206">
-    <cfRule type="cellIs" dxfId="18" priority="21" operator="equal">
-      <formula>"TBD"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B212:E212">
-    <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="21" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F212">
+    <cfRule type="cellIs" dxfId="18" priority="19" operator="equal">
+      <formula>"TBD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B210:E210">
+    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
+      <formula>"TBD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F210">
     <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B210:E210">
+  <conditionalFormatting sqref="B170:D170">
     <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F210">
+  <conditionalFormatting sqref="F170">
     <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B170:D170">
+  <conditionalFormatting sqref="B95:D95">
     <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F170">
+  <conditionalFormatting sqref="E95">
     <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B95:D95">
+  <conditionalFormatting sqref="F95">
     <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E95">
+  <conditionalFormatting sqref="B213:D213">
     <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F95">
+  <conditionalFormatting sqref="F213">
     <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B213:D213">
+  <conditionalFormatting sqref="C252:C256">
     <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F213">
+  <conditionalFormatting sqref="B242:B251">
     <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C252:C256">
+  <conditionalFormatting sqref="B252:B256">
     <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B242:B251">
+  <conditionalFormatting sqref="E160">
     <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B252:B256">
+  <conditionalFormatting sqref="D259:E259">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E160">
+  <conditionalFormatting sqref="F259">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D259:E259">
+  <conditionalFormatting sqref="E153">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F259">
+  <conditionalFormatting sqref="C260 E260">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E153">
+  <conditionalFormatting sqref="D260 F260">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>

--- a/server/corelib/lang/all_lang_V1.8.xlsx
+++ b/server/corelib/lang/all_lang_V1.8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\digiCenter\server\corelib\lang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B4CA437-CDB9-4B91-814B-2AB8AFB7861F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4AC4B6C-7C7E-4A56-9065-989392911882}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1310" uniqueCount="1205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1330" uniqueCount="1227">
   <si>
     <t>name</t>
   </si>
@@ -1135,9 +1135,6 @@
     <t>Benutzer Gast kann nicht gelöscht werden!</t>
   </si>
   <si>
-    <t>Super user kann nicht gelöscht werden!</t>
-  </si>
-  <si>
     <t>Bitte zuerst Benutzer auswählen!</t>
   </si>
   <si>
@@ -1145,9 +1142,6 @@
   </si>
   <si>
     <t>Benutzer Gast ist immer aktiviert!</t>
-  </si>
-  <si>
-    <t>Super user ist immer aktiviert!</t>
   </si>
   <si>
     <t>Benutzer wurde erfolgreich aktiviert!</t>
@@ -3132,873 +3126,965 @@
     <t>Sequence Teardown</t>
   </si>
   <si>
+    <t>流程结束程序</t>
+  </si>
+  <si>
+    <t>刪除</t>
+  </si>
+  <si>
+    <t>Löschen</t>
+  </si>
+  <si>
+    <t>open_teach_pos_pdf</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Click me to open guide of teaching position</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击我打开教学位置指南</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Klicken Sie auf mich, um den Leitfaden für die Lehrposition zu öffnen</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>點擊我打開教學位置指南</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>side_posteach</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>量測點教學</t>
+  </si>
+  <si>
+    <t>量测点教学</t>
+  </si>
+  <si>
+    <t>MearPos Guide</t>
+  </si>
+  <si>
+    <t>main_indicator_humidity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Humidity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>濕度</t>
+  </si>
+  <si>
+    <t>Feuchtigkeit</t>
+  </si>
+  <si>
+    <t>湿度</t>
+  </si>
+  <si>
+    <t>server_reply_batch_seq_not_found</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>The sequence file is not found</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>此測試流程檔案遺失</t>
+  </si>
+  <si>
+    <t>此测试流程档案遗失</t>
+  </si>
+  <si>
+    <t>The Project and Batch {} are both exsisted! Do you want to continue this batch?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>此專案及批號 {} 已存在，是否要繼續?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Das Projekt und Batch {} sind beide vorhanden! Möchten Sie die Bearbeitung fortsetzen?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>此专案及批号 {} 已存在，是否要继续?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>run_stauts_monitor_title</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sample Monitor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>樣品即時監測</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>run_open_sampleSetupList_btn</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test Setup</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>測試設定</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>modal_batch_setup_dialog_title</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Add</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Clear All Samples</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>清除所有樣品</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>moveLastBtn</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>moveHomeBtn</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>moveNextBtn</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>To Home</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>To Last Position</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>To Next Position</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>移動至下個位置</t>
+  </si>
+  <si>
+    <t>移動至上個位置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>回原點</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Probe-Monitor</t>
+  </si>
+  <si>
+    <t>样品即时监测</t>
+  </si>
+  <si>
+    <t>Versuchsaufbau</t>
+  </si>
+  <si>
+    <t>测试设定</t>
+  </si>
+  <si>
+    <t>清除所有样品</t>
+  </si>
+  <si>
+    <t>移动至上个位置</t>
+  </si>
+  <si>
+    <t>Nach Hause</t>
+  </si>
+  <si>
+    <t>回原点</t>
+  </si>
+  <si>
+    <t>移动至下个位置</t>
+  </si>
+  <si>
+    <t>sampleSetupConfirmBtn</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>確定</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>确定</t>
+  </si>
+  <si>
+    <t>History Chart</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Temperature and Hardness Measurement Chart</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>歷史數據紀錄圖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Temperatur und Härtemessung Tabelle</t>
+  </si>
+  <si>
+    <t>历史数据纪录图</t>
+  </si>
+  <si>
+    <t>open_sampleSetupList</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Call Sample Setup Panel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>呼叫批號設定視窗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>呼叫批号设定视窗</t>
+  </si>
+  <si>
+    <t>sampleBatchConfigAddBtn</t>
+  </si>
+  <si>
+    <t>sampleBatchConfigClearAllBtn</t>
+  </si>
+  <si>
+    <t>goToIndexBtn</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Go To Index</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>转至索引位置</t>
+  </si>
+  <si>
+    <t>轉至索引位置</t>
+  </si>
+  <si>
+    <t>modal_moving_sample_sampleIndex</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sample Index</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>該批號內之待測物流水號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Proben-ID</t>
+  </si>
+  <si>
+    <t>该批号内之待测物流水号</t>
+  </si>
+  <si>
+    <t>machine_running</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>running</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>運作中</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>运作中</t>
+  </si>
+  <si>
+    <t>internal_exception_title</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>internal_exception_msg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>internal_exception_detail</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Internal Error</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Internal Exception</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Error Detail</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>內部錯誤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>錯誤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>詳細錯誤描述</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Interner Fehler</t>
+  </si>
+  <si>
+    <t>Interne Ausnahme</t>
+  </si>
+  <si>
+    <t>内部错误</t>
+  </si>
+  <si>
+    <t>Fehlerdetails</t>
+  </si>
+  <si>
+    <t>详细错误描述</t>
+  </si>
+  <si>
+    <t>general_digitest_mode_switch</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Force Manual Mode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>啟用手動測試模式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>启用手动测试模式</t>
+  </si>
+  <si>
+    <t>report_groupTable_tab</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Group Table</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分組表格</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gruppentabelle</t>
+  </si>
+  <si>
+    <t>分组表格</t>
+  </si>
+  <si>
+    <t>target_temperature</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>target temperature</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tolerance</t>
+  </si>
+  <si>
+    <t>slope</t>
+  </si>
+  <si>
+    <t>increment</t>
+  </si>
+  <si>
+    <t>mode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>method</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>measuring time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>number of measurement</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>numerical method</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>loop id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>loop counts</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>loop color</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>stop on</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>measuring_time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>number_of_measurement</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>numerical_method</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>目標溫度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>容許範圍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>溫升斜率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>溫度增幅(需搭配迴圈)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>increment(valid only inside the loop)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>模式</t>
+  </si>
+  <si>
+    <t>模式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>方法</t>
+  </si>
+  <si>
+    <t>方法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>量測時間</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>量測次數</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>輸出數值算法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>conditioning time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>conditioning_time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>等待時間</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>迴圈辨別號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>迴圈次數</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>迴圈顏色</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>停止條件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标温度</t>
+  </si>
+  <si>
+    <t>Toleranz</t>
+  </si>
+  <si>
+    <t>容许范围</t>
+  </si>
+  <si>
+    <t>Steigung</t>
+  </si>
+  <si>
+    <t>温升斜率</t>
+  </si>
+  <si>
+    <t>increment (gilt nur innerhalb der Schleife)</t>
+  </si>
+  <si>
+    <t>温度增幅(需搭配回圈)</t>
+  </si>
+  <si>
+    <t>Modus</t>
+  </si>
+  <si>
+    <t>Methode</t>
+  </si>
+  <si>
+    <t>Messzeit</t>
+  </si>
+  <si>
+    <t>量测时间</t>
+  </si>
+  <si>
+    <t>量测次数</t>
+  </si>
+  <si>
+    <t>numerische Methode</t>
+  </si>
+  <si>
+    <t>输出数值算法</t>
+  </si>
+  <si>
+    <t>Konditionierungszeit</t>
+  </si>
+  <si>
+    <t>等待时间</t>
+  </si>
+  <si>
+    <t>回圈辨别号</t>
+  </si>
+  <si>
+    <t>Schleifenzählungen</t>
+  </si>
+  <si>
+    <t>回圈次数</t>
+  </si>
+  <si>
+    <t>回圈颜色</t>
+  </si>
+  <si>
+    <t>停止条件</t>
+  </si>
+  <si>
+    <t>loopid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>loop_counts</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>loop_color</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>waiting_time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>safe_temperature</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>waiting time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>safe temperature</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>等待時間</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全溫度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wartezeit</t>
+  </si>
+  <si>
+    <t>sichere Temperatur</t>
+  </si>
+  <si>
+    <t>安全温度</t>
+  </si>
+  <si>
+    <t>digitest_distance_too_big</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DigiTest發生錯誤，量測距離過長，請確認樣品</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DigiTest Error. Distance too big, please check sample.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DigiTest发生错误，量测距离过长，请确认样品</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rotation_table_move_fail</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RotationTableMoveError. Please check motor.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>轉盤移動錯誤，請確認馬達</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>转盘移动错误，请确认马达</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Anmelden</t>
+  </si>
+  <si>
+    <t>Abmelden</t>
+  </si>
+  <si>
+    <t>Änderungen bestätigen</t>
+  </si>
+  <si>
+    <t>Stopp</t>
+  </si>
+  <si>
+    <t>Proben Index</t>
+  </si>
+  <si>
+    <t>Download abgeschlossen! (Anzahl der {} Proben)</t>
+  </si>
+  <si>
+    <t>Hardware Initialisierung erfolgreich</t>
+  </si>
+  <si>
+    <t>Hardware Initialisierung fehlerhaft</t>
+  </si>
+  <si>
+    <t>Die Sequenz-Datei wurde nicht gefunden</t>
+  </si>
+  <si>
+    <t>Manueller Stopp</t>
+  </si>
+  <si>
+    <t>Test beendet</t>
+  </si>
+  <si>
+    <t>Report Vorschau</t>
+  </si>
+  <si>
+    <t>verbunden</t>
+  </si>
+  <si>
+    <t>läuft</t>
+  </si>
+  <si>
+    <t>DigiTest verbunden</t>
+  </si>
+  <si>
+    <t>DigiTest getrennt</t>
+  </si>
+  <si>
+    <t>Bitte wählen Sie mindestens eine Charge aus</t>
+  </si>
+  <si>
+    <t>Prüfablauf Datei existiert nicht!</t>
+  </si>
+  <si>
+    <t>Sequenz-Einstellungen</t>
+  </si>
+  <si>
+    <t>Freigeben</t>
+  </si>
+  <si>
+    <t>Alle Proben löschen</t>
+  </si>
+  <si>
+    <t>Zur letzten Position</t>
+  </si>
+  <si>
+    <t>Zur nächsten Position</t>
+  </si>
+  <si>
+    <t>Zum Index</t>
+  </si>
+  <si>
+    <t>Solltemperatur</t>
+  </si>
+  <si>
+    <t>Anzahl der Messungen</t>
+  </si>
+  <si>
+    <t>Schleifen id</t>
+  </si>
+  <si>
+    <t>Schleifen Farbe</t>
+  </si>
+  <si>
+    <t>Machine Connection Setup</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Climate Chamber IP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>機台連線設定</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>溫控箱IP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Export failed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maschine Verbindungsaufbau</t>
+  </si>
+  <si>
+    <t>机台连线设定</t>
+  </si>
+  <si>
+    <t>Klimakammer IP</t>
+  </si>
+  <si>
+    <t>温控箱IP</t>
+  </si>
+  <si>
+    <t>run_batchstats</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>預估時間與溫度範圍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Approx. ranges of time and temperature</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ca.. Bereiche von Zeit und Temperatur</t>
+  </si>
+  <si>
+    <t>预估时间与温度范围</t>
+  </si>
+  <si>
+    <t>exceed_max_temp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>exceed_min_temp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maximun temperature is out of range</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Minimum temperature is out of range</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>超過最大溫度上限</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>超過最小溫度下限</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maximun Temperatur des Bereichs aus</t>
+  </si>
+  <si>
+    <t>超过最大温度上限</t>
+  </si>
+  <si>
+    <t>Tiefsttemperatur ist Bereich aus</t>
+  </si>
+  <si>
+    <t>超过最小温度下限</t>
+  </si>
+  <si>
+    <t>error_happen_go_teardown_header</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Go Teardown?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>teardown_error_title</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>teardown_go_btn</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>teardown_cancel_btn</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stop</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Go Teardown Step</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>流程結束程序</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>執行流程結束程序</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>發生錯誤! 是否要執行流程結束程序(加熱程序)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Error During Test!
+Do you want to execute teardown step (heating process)?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>執行流程結束程序?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>停止流程</t>
+  </si>
+  <si>
+    <t>停止流程</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行流程结束程序?</t>
+  </si>
+  <si>
+    <t>Fehler beim Test!
+Wollen Sie Teardown Schritt (Heizprozess) auszuführen?</t>
+  </si>
+  <si>
+    <t>发生错误! 是否要执行流程结束程序(加热程序)</t>
+  </si>
+  <si>
+    <t>执行流程结束程序</t>
+  </si>
+  <si>
+    <t>Halt</t>
+  </si>
+  <si>
+    <t>Verlaufsdiagramm</t>
+  </si>
+  <si>
+    <t>Super Admin kann nicht gelöscht werden!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Super Admin ist immer aktiviert!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Export fehlgeschlagen!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB_UserData überschreiben? - Bitte JA oder NEIN wählen.</t>
+  </si>
+  <si>
+    <t>Proben Setup öffnen</t>
+  </si>
+  <si>
+    <t>Test Starten</t>
+  </si>
+  <si>
+    <t>Test Stoppen</t>
   </si>
   <si>
     <t>Sequenz Teardown</t>
-  </si>
-  <si>
-    <t>流程结束程序</t>
-  </si>
-  <si>
-    <t>刪除</t>
-  </si>
-  <si>
-    <t>Löschen</t>
-  </si>
-  <si>
-    <t>open_teach_pos_pdf</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Click me to open guide of teaching position</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击我打开教学位置指南</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Klicken Sie auf mich, um den Leitfaden für die Lehrposition zu öffnen</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>點擊我打開教學位置指南</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>side_posteach</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>量測點教學</t>
-  </si>
-  <si>
-    <t>量测点教学</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Go Sequenz Teardown?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Go Sequenz Teardown</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>MearPos Guide</t>
-  </si>
-  <si>
-    <t>main_indicator_humidity</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Humidity</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>濕度</t>
-  </si>
-  <si>
-    <t>Feuchtigkeit</t>
-  </si>
-  <si>
-    <t>湿度</t>
-  </si>
-  <si>
-    <t>server_reply_batch_seq_not_found</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>The sequence file is not found</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>此測試流程檔案遺失</t>
-  </si>
-  <si>
-    <t>此测试流程档案遗失</t>
-  </si>
-  <si>
-    <t>The Project and Batch {} are both exsisted! Do you want to continue this batch?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>此專案及批號 {} 已存在，是否要繼續?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Das Projekt und Batch {} sind beide vorhanden! Möchten Sie die Bearbeitung fortsetzen?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>此专案及批号 {} 已存在，是否要继续?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>run_stauts_monitor_title</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sample Monitor</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>樣品即時監測</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>run_open_sampleSetupList_btn</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Test Setup</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>測試設定</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>modal_batch_setup_dialog_title</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Add</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Clear All Samples</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>清除所有樣品</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>moveLastBtn</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>moveHomeBtn</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>moveNextBtn</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>To Home</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>To Last Position</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>To Next Position</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>移動至下個位置</t>
-  </si>
-  <si>
-    <t>移動至上個位置</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>回原點</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Probe-Monitor</t>
-  </si>
-  <si>
-    <t>样品即时监测</t>
-  </si>
-  <si>
-    <t>Versuchsaufbau</t>
-  </si>
-  <si>
-    <t>测试设定</t>
-  </si>
-  <si>
-    <t>清除所有样品</t>
-  </si>
-  <si>
-    <t>移动至上个位置</t>
-  </si>
-  <si>
-    <t>Nach Hause</t>
-  </si>
-  <si>
-    <t>回原点</t>
-  </si>
-  <si>
-    <t>移动至下个位置</t>
-  </si>
-  <si>
-    <t>sampleSetupConfirmBtn</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>確定</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>确定</t>
-  </si>
-  <si>
-    <t>History Chart</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Temperature and Hardness Measurement Chart</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>歷史數據紀錄圖</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Temperatur und Härtemessung Tabelle</t>
-  </si>
-  <si>
-    <t>历史数据纪录图</t>
-  </si>
-  <si>
-    <t>open_sampleSetupList</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Call Sample Setup Panel</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>呼叫批號設定視窗</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rufen Sie Sample Setup-Panel</t>
-  </si>
-  <si>
-    <t>呼叫批号设定视窗</t>
-  </si>
-  <si>
-    <t>sampleBatchConfigAddBtn</t>
-  </si>
-  <si>
-    <t>sampleBatchConfigClearAllBtn</t>
-  </si>
-  <si>
-    <t>goToIndexBtn</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Go To Index</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>转至索引位置</t>
-  </si>
-  <si>
-    <t>轉至索引位置</t>
-  </si>
-  <si>
-    <t>modal_moving_sample_sampleIndex</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sample Index</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>該批號內之待測物流水號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Proben-ID</t>
-  </si>
-  <si>
-    <t>该批号内之待测物流水号</t>
-  </si>
-  <si>
-    <t>machine_running</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>running</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>運作中</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>运作中</t>
-  </si>
-  <si>
-    <t>internal_exception_title</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>internal_exception_msg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>internal_exception_detail</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Internal Error</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Internal Exception</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Error Detail</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>內部錯誤</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>錯誤</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>詳細錯誤描述</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Interner Fehler</t>
-  </si>
-  <si>
-    <t>Interne Ausnahme</t>
-  </si>
-  <si>
-    <t>内部错误</t>
-  </si>
-  <si>
-    <t>Fehlerdetails</t>
-  </si>
-  <si>
-    <t>详细错误描述</t>
-  </si>
-  <si>
-    <t>general_digitest_mode_switch</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Force Manual Mode</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>啟用手動測試模式</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>启用手动测试模式</t>
-  </si>
-  <si>
-    <t>report_groupTable_tab</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Group Table</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>分組表格</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gruppentabelle</t>
-  </si>
-  <si>
-    <t>分组表格</t>
-  </si>
-  <si>
-    <t>target_temperature</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>target temperature</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tolerance</t>
-  </si>
-  <si>
-    <t>slope</t>
-  </si>
-  <si>
-    <t>increment</t>
-  </si>
-  <si>
-    <t>mode</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>method</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>measuring time</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>number of measurement</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>numerical method</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>loop id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>loop counts</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>loop color</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>stop on</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>measuring_time</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>number_of_measurement</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>numerical_method</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>目標溫度</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>容許範圍</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>溫升斜率</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>溫度增幅(需搭配迴圈)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>increment(valid only inside the loop)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>模式</t>
-  </si>
-  <si>
-    <t>模式</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>方法</t>
-  </si>
-  <si>
-    <t>方法</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>量測時間</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>量測次數</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>輸出數值算法</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>conditioning time</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>conditioning_time</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>等待時間</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>迴圈辨別號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>迴圈次數</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>迴圈顏色</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>停止條件</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>目标温度</t>
-  </si>
-  <si>
-    <t>Toleranz</t>
-  </si>
-  <si>
-    <t>容许范围</t>
-  </si>
-  <si>
-    <t>Steigung</t>
-  </si>
-  <si>
-    <t>温升斜率</t>
-  </si>
-  <si>
-    <t>increment (gilt nur innerhalb der Schleife)</t>
-  </si>
-  <si>
-    <t>温度增幅(需搭配回圈)</t>
-  </si>
-  <si>
-    <t>Modus</t>
-  </si>
-  <si>
-    <t>Methode</t>
-  </si>
-  <si>
-    <t>Messzeit</t>
-  </si>
-  <si>
-    <t>量测时间</t>
-  </si>
-  <si>
-    <t>量测次数</t>
-  </si>
-  <si>
-    <t>numerische Methode</t>
-  </si>
-  <si>
-    <t>输出数值算法</t>
-  </si>
-  <si>
-    <t>Konditionierungszeit</t>
-  </si>
-  <si>
-    <t>等待时间</t>
-  </si>
-  <si>
-    <t>回圈辨别号</t>
-  </si>
-  <si>
-    <t>Schleifenzählungen</t>
-  </si>
-  <si>
-    <t>回圈次数</t>
-  </si>
-  <si>
-    <t>回圈颜色</t>
-  </si>
-  <si>
-    <t>停止条件</t>
-  </si>
-  <si>
-    <t>loopid</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>loop_counts</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>loop_color</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>waiting_time</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>safe_temperature</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>waiting time</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>safe temperature</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>等待時間</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>安全溫度</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wartezeit</t>
-  </si>
-  <si>
-    <t>sichere Temperatur</t>
-  </si>
-  <si>
-    <t>安全温度</t>
-  </si>
-  <si>
-    <t>digitest_distance_too_big</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DigiTest發生錯誤，量測距離過長，請確認樣品</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DigiTest Error. Distance too big, please check sample.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DigiTest Fehler, Die Entfernung zu groß, bitte Probe überprüfen.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DigiTest发生错误，量测距离过长，请确认样品</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>rotation_table_move_fail</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RotationTableMoveError. Please check motor.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>轉盤移動錯誤，請確認馬達</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RotationTableMoveError. Bitte überprüfen Motor.</t>
-  </si>
-  <si>
-    <t>转盘移动错误，请确认马达</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>Anmelden</t>
-  </si>
-  <si>
-    <t>Abmelden</t>
-  </si>
-  <si>
-    <t>Änderungen bestätigen</t>
-  </si>
-  <si>
-    <t>Stopp</t>
-  </si>
-  <si>
-    <t>Historie-Diagramm</t>
-  </si>
-  <si>
-    <t>Proben Index</t>
-  </si>
-  <si>
-    <t>Download abgeschlossen! (Anzahl der {} Proben)</t>
-  </si>
-  <si>
-    <t>DB_UserData überschreiben? - Bitte JAoder NEIN wählen.</t>
-  </si>
-  <si>
-    <t>Hardware Initialisierung erfolgreich</t>
-  </si>
-  <si>
-    <t>Hardware Initialisierung fehlerhaft</t>
-  </si>
-  <si>
-    <t>Die Sequenz-Datei wurde nicht gefunden</t>
-  </si>
-  <si>
-    <t>Manueller Stopp</t>
-  </si>
-  <si>
-    <t>Test beendet</t>
-  </si>
-  <si>
-    <t>Stopp Test</t>
-  </si>
-  <si>
-    <t>Report Vorschau</t>
-  </si>
-  <si>
-    <t>verbunden</t>
-  </si>
-  <si>
-    <t>läuft</t>
-  </si>
-  <si>
-    <t>DigiTest verbunden</t>
-  </si>
-  <si>
-    <t>DigiTest getrennt</t>
-  </si>
-  <si>
-    <t>Bitte wählen Sie mindestens eine Charge aus</t>
-  </si>
-  <si>
-    <t>Prüfablauf Datei existiert nicht!</t>
-  </si>
-  <si>
-    <t>Sequenz-Einstellungen</t>
-  </si>
-  <si>
-    <t>Freigeben</t>
-  </si>
-  <si>
-    <t>MearPos Guide ("Führer" is in reason of the German History no good word)</t>
-  </si>
-  <si>
-    <t>Alle Proben löschen</t>
-  </si>
-  <si>
-    <t>Zur letzten Position</t>
-  </si>
-  <si>
-    <t>Zur nächsten Position</t>
-  </si>
-  <si>
-    <t>Zum Index</t>
-  </si>
-  <si>
-    <t>Handbetrieb</t>
-  </si>
-  <si>
-    <t>Solltemperatur</t>
-  </si>
-  <si>
-    <t>Anzahl der Messungen</t>
-  </si>
-  <si>
-    <t>Schleifen id</t>
-  </si>
-  <si>
-    <t>Schleifen Farbe</t>
-  </si>
-  <si>
-    <t>Sopp bei</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Machine Connection Setup</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Climate Chamber IP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>機台連線設定</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>溫控箱IP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Export failed</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Maschine Verbindungsaufbau</t>
-  </si>
-  <si>
-    <t>机台连线设定</t>
-  </si>
-  <si>
-    <t>Klimakammer IP</t>
-  </si>
-  <si>
-    <t>温控箱IP</t>
-  </si>
-  <si>
-    <t>run_batchstats</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>預估時間與溫度範圍</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Approx. ranges of time and temperature</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ca.. Bereiche von Zeit und Temperatur</t>
-  </si>
-  <si>
-    <t>预估时间与温度范围</t>
-  </si>
-  <si>
-    <t>exceed_max_temp</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>exceed_min_temp</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Maximun temperature is out of range</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Minimum temperature is out of range</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>超過最大溫度上限</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>超過最小溫度下限</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Maximun Temperatur des Bereichs aus</t>
-  </si>
-  <si>
-    <t>超过最大温度上限</t>
-  </si>
-  <si>
-    <t>Tiefsttemperatur ist Bereich aus</t>
-  </si>
-  <si>
-    <t>超过最小温度下限</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Manueller Modus</t>
+  </si>
+  <si>
+    <t>Stoppen</t>
+  </si>
+  <si>
+    <t>DigiTest Fehler, Distanz zur Probe zu groß, bitte Probe überprüfen</t>
+  </si>
+  <si>
+    <t>RotationTableMoveError. Bitte Motor überprüfen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4028,13 +4114,38 @@
       <family val="2"/>
       <charset val="136"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -4064,7 +4175,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -4090,11 +4201,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="61">
+  <dxfs count="63">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -5039,10 +5197,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F262"/>
+  <dimension ref="A1:F266"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A237" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D253" sqref="D253"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5067,7 +5225,7 @@
         <v>316</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -5087,7 +5245,7 @@
         <v>317</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -5104,7 +5262,7 @@
         <v>113</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>113</v>
@@ -5115,19 +5273,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>591</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>592</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>593</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>594</v>
-      </c>
       <c r="F4" s="6" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -5147,7 +5305,7 @@
         <v>318</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -5161,13 +5319,13 @@
         <v>115</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -5181,13 +5339,13 @@
         <v>116</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>1146</v>
+        <v>1139</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -5207,7 +5365,7 @@
         <v>117</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -5215,7 +5373,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>118</v>
@@ -5235,7 +5393,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>119</v>
@@ -5267,7 +5425,7 @@
         <v>321</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -5287,7 +5445,7 @@
         <v>317</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -5307,7 +5465,7 @@
         <v>322</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -5327,7 +5485,7 @@
         <v>323</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -5335,7 +5493,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>123</v>
@@ -5344,7 +5502,7 @@
         <v>225</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>225</v>
@@ -5355,19 +5513,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>698</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>699</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>700</v>
-      </c>
       <c r="E16" s="1" t="s">
-        <v>1148</v>
+        <v>1141</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -5387,7 +5545,7 @@
         <v>324</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -5407,7 +5565,7 @@
         <v>324</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -5427,7 +5585,7 @@
         <v>325</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -5447,7 +5605,7 @@
         <v>325</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -5467,7 +5625,7 @@
         <v>326</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -5487,7 +5645,7 @@
         <v>326</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -5507,7 +5665,7 @@
         <v>327</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -5527,7 +5685,7 @@
         <v>328</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -5547,7 +5705,7 @@
         <v>329</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -5567,7 +5725,7 @@
         <v>330</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -5587,7 +5745,7 @@
         <v>331</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -5621,53 +5779,53 @@
         <v>133</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>133</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="11">
         <v>29</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>1181</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>1183</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>1186</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>1187</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
+      <c r="C30" s="13" t="s">
+        <v>1168</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>1170</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>1173</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="9">
         <v>30</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>1182</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>1184</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>1188</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>1189</v>
+      <c r="C31" s="10" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>1171</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>1175</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>1176</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -5675,19 +5833,19 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>405</v>
-      </c>
       <c r="D32" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -5695,7 +5853,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>134</v>
@@ -5707,7 +5865,7 @@
         <v>333</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -5727,7 +5885,7 @@
         <v>334</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -5747,7 +5905,7 @@
         <v>335</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -5767,7 +5925,7 @@
         <v>336</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -5787,7 +5945,7 @@
         <v>337</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -5807,7 +5965,7 @@
         <v>139</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -5824,7 +5982,7 @@
         <v>241</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>1149</v>
+        <v>1142</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>241</v>
@@ -5847,7 +6005,7 @@
         <v>339</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -5867,7 +6025,7 @@
         <v>340</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -5887,7 +6045,7 @@
         <v>341</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -5907,7 +6065,7 @@
         <v>342</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -5927,7 +6085,7 @@
         <v>325</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -5967,7 +6125,7 @@
         <v>340</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -6007,7 +6165,7 @@
         <v>344</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -6024,10 +6182,10 @@
         <v>249</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -6047,7 +6205,7 @@
         <v>322</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -6067,7 +6225,7 @@
         <v>345</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -6107,7 +6265,7 @@
         <v>347</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -6127,7 +6285,7 @@
         <v>340</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -6147,7 +6305,7 @@
         <v>152</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -6175,19 +6333,19 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="C57" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="D57" s="3" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -6195,19 +6353,19 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>319</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -6215,19 +6373,19 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -6235,19 +6393,19 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -6255,19 +6413,19 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -6275,19 +6433,19 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -6295,19 +6453,19 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -6315,19 +6473,19 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -6335,19 +6493,19 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>330</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -6355,19 +6513,19 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -6375,19 +6533,19 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>595</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="D67" s="6" t="s">
         <v>597</v>
       </c>
-      <c r="D67" s="6" t="s">
+      <c r="E67" s="3" t="s">
         <v>599</v>
       </c>
-      <c r="E67" s="3" t="s">
-        <v>601</v>
-      </c>
       <c r="F67" s="6" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -6395,19 +6553,19 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>596</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="D68" s="4" t="s">
         <v>598</v>
       </c>
-      <c r="D68" s="4" t="s">
+      <c r="E68" s="3" t="s">
         <v>600</v>
       </c>
-      <c r="E68" s="3" t="s">
-        <v>602</v>
-      </c>
       <c r="F68" s="4" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -6415,19 +6573,19 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -6435,19 +6593,19 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -6455,19 +6613,19 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -6475,19 +6633,19 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -6495,19 +6653,19 @@
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="D73" s="6" t="s">
         <v>691</v>
       </c>
-      <c r="C73" s="1" t="s">
-        <v>694</v>
-      </c>
-      <c r="D73" s="6" t="s">
-        <v>693</v>
-      </c>
       <c r="E73" s="3" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
@@ -6515,19 +6673,19 @@
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="E74" s="8" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -6535,19 +6693,19 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -6555,19 +6713,19 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -6575,19 +6733,19 @@
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -6595,19 +6753,19 @@
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="F78" s="6" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -6615,19 +6773,19 @@
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -6635,19 +6793,19 @@
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="E80" s="3" t="s">
         <v>155</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -6655,19 +6813,19 @@
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -6675,19 +6833,19 @@
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -6695,19 +6853,19 @@
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>327</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -6715,19 +6873,19 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -6735,19 +6893,19 @@
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>1150</v>
+        <v>1143</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -6755,19 +6913,19 @@
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="C86" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="C86" s="1" t="s">
-        <v>441</v>
-      </c>
       <c r="D86" s="4" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -6775,19 +6933,19 @@
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C87" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="C87" s="1" t="s">
-        <v>442</v>
-      </c>
       <c r="D87" s="4" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -6795,19 +6953,19 @@
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>1020</v>
+        <v>1016</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -6815,19 +6973,19 @@
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C89" s="1" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="F89" s="4" t="s">
         <v>1019</v>
-      </c>
-      <c r="D89" s="4" t="s">
-        <v>1021</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>1151</v>
-      </c>
-      <c r="F89" s="4" t="s">
-        <v>1023</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -6835,19 +6993,19 @@
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="C90" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="C90" s="1" t="s">
-        <v>573</v>
-      </c>
       <c r="D90" s="1" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -6855,19 +7013,19 @@
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="C91" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="D91" s="4" t="s">
         <v>576</v>
       </c>
-      <c r="D91" s="4" t="s">
-        <v>578</v>
-      </c>
       <c r="E91" s="1" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -6875,19 +7033,19 @@
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="C92" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="D92" s="4" t="s">
         <v>577</v>
       </c>
-      <c r="D92" s="4" t="s">
-        <v>579</v>
-      </c>
       <c r="E92" s="1" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="63" x14ac:dyDescent="0.25">
@@ -6895,19 +7053,19 @@
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -6915,19 +7073,19 @@
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>1035</v>
+        <v>1030</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>1036</v>
+        <v>1031</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>1152</v>
+        <v>1144</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -6935,19 +7093,19 @@
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="C95" s="1" t="s">
         <v>584</v>
       </c>
-      <c r="C95" s="1" t="s">
-        <v>586</v>
-      </c>
       <c r="D95" s="4" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>1038</v>
+        <v>1033</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -6955,19 +7113,19 @@
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="C96" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="C96" s="1" t="s">
-        <v>587</v>
-      </c>
       <c r="D96" s="4" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -6975,7 +7133,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>153</v>
@@ -6987,7 +7145,7 @@
         <v>348</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -7004,10 +7162,10 @@
         <v>255</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -7027,7 +7185,7 @@
         <v>155</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -7067,7 +7225,7 @@
         <v>349</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
@@ -7107,7 +7265,7 @@
         <v>351</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
@@ -7147,7 +7305,7 @@
         <v>353</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -7158,16 +7316,16 @@
         <v>57</v>
       </c>
       <c r="C106" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="E106" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="D106" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>511</v>
-      </c>
       <c r="F106" s="1" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
@@ -7187,7 +7345,7 @@
         <v>354</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
@@ -7207,7 +7365,7 @@
         <v>355</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
@@ -7227,7 +7385,7 @@
         <v>356</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
@@ -7247,7 +7405,7 @@
         <v>357</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
@@ -7267,7 +7425,7 @@
         <v>358</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
@@ -7287,7 +7445,7 @@
         <v>359</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
@@ -7307,7 +7465,7 @@
         <v>360</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -7327,7 +7485,7 @@
         <v>361</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
@@ -7347,7 +7505,7 @@
         <v>362</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
@@ -7367,7 +7525,7 @@
         <v>363</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
@@ -7387,7 +7545,7 @@
         <v>364</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
@@ -7447,7 +7605,7 @@
         <v>366</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
@@ -7467,7 +7625,7 @@
         <v>367</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
@@ -7507,7 +7665,7 @@
         <v>369</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
@@ -7527,7 +7685,7 @@
         <v>370</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
@@ -7544,10 +7702,10 @@
         <v>280</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>371</v>
+        <v>1212</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
@@ -7564,10 +7722,10 @@
         <v>281</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
@@ -7584,10 +7742,10 @@
         <v>282</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
@@ -7604,10 +7762,10 @@
         <v>283</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
@@ -7624,10 +7782,10 @@
         <v>284</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
@@ -7644,10 +7802,10 @@
         <v>285</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>375</v>
+        <v>1213</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
@@ -7664,10 +7822,10 @@
         <v>286</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
@@ -7684,10 +7842,10 @@
         <v>287</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
@@ -7704,10 +7862,10 @@
         <v>288</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
@@ -7724,10 +7882,10 @@
         <v>289</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
@@ -7744,10 +7902,10 @@
         <v>290</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
@@ -7764,10 +7922,10 @@
         <v>291</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
@@ -7784,10 +7942,10 @@
         <v>292</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
@@ -7804,10 +7962,10 @@
         <v>293</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
@@ -7824,10 +7982,10 @@
         <v>294</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
@@ -7844,7 +8002,7 @@
         <v>295</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F140" s="1" t="s">
         <v>295</v>
@@ -7864,10 +8022,10 @@
         <v>296</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
@@ -7884,10 +8042,10 @@
         <v>297</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
@@ -7904,10 +8062,10 @@
         <v>298</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
@@ -7924,10 +8082,10 @@
         <v>299</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
@@ -7944,10 +8102,10 @@
         <v>300</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
@@ -7964,10 +8122,10 @@
         <v>301</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
@@ -7984,10 +8142,10 @@
         <v>302</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
@@ -8004,10 +8162,10 @@
         <v>303</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
@@ -8024,10 +8182,10 @@
         <v>304</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
@@ -8035,7 +8193,7 @@
         <v>149</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>205</v>
@@ -8044,10 +8202,10 @@
         <v>305</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
@@ -8055,19 +8213,19 @@
         <v>150</v>
       </c>
       <c r="B151" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="D151" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="C151" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="D151" s="1" t="s">
-        <v>518</v>
-      </c>
       <c r="E151" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
@@ -8075,19 +8233,19 @@
         <v>151</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
@@ -8095,19 +8253,19 @@
         <v>152</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>1185</v>
+        <v>1172</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>556</v>
+        <v>1214</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
@@ -8124,10 +8282,10 @@
         <v>306</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
@@ -8144,10 +8302,10 @@
         <v>307</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
@@ -8164,10 +8322,10 @@
         <v>308</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>1153</v>
+        <v>1145</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
@@ -8184,10 +8342,10 @@
         <v>309</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
@@ -8204,10 +8362,10 @@
         <v>310</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
@@ -8224,10 +8382,10 @@
         <v>311</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
@@ -8244,10 +8402,10 @@
         <v>312</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>1154</v>
+        <v>1215</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
@@ -8264,10 +8422,10 @@
         <v>313</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
@@ -8284,10 +8442,10 @@
         <v>314</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>1155</v>
+        <v>1146</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
@@ -8304,10 +8462,10 @@
         <v>315</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>1156</v>
+        <v>1147</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
@@ -8315,19 +8473,19 @@
         <v>163</v>
       </c>
       <c r="B164" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="D164" s="4" t="s">
         <v>487</v>
       </c>
-      <c r="C164" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="D164" s="4" t="s">
-        <v>489</v>
-      </c>
       <c r="E164" s="4" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="F164" s="4" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
@@ -8335,19 +8493,19 @@
         <v>164</v>
       </c>
       <c r="B165" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="D165" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="C165" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="D165" s="4" t="s">
-        <v>492</v>
-      </c>
       <c r="E165" s="4" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="F165" s="4" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
@@ -8355,19 +8513,19 @@
         <v>165</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
@@ -8375,19 +8533,19 @@
         <v>166</v>
       </c>
       <c r="B167" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="D167" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="C167" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="D167" s="1" t="s">
-        <v>501</v>
-      </c>
       <c r="E167" s="1" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
@@ -8395,19 +8553,19 @@
         <v>167</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
@@ -8415,19 +8573,19 @@
         <v>168</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C169" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="D169" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="D169" s="1" t="s">
-        <v>502</v>
-      </c>
       <c r="E169" s="1" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
@@ -8435,19 +8593,19 @@
         <v>169</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>981</v>
+        <v>977</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>1157</v>
+        <v>1148</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
@@ -8455,19 +8613,19 @@
         <v>170</v>
       </c>
       <c r="B171" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="C171" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="C171" s="1" t="s">
+      <c r="D171" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="D171" s="1" t="s">
-        <v>507</v>
-      </c>
       <c r="E171" s="1" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
@@ -8475,19 +8633,19 @@
         <v>171</v>
       </c>
       <c r="B172" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="C172" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="C172" s="1" t="s">
+      <c r="D172" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="D172" s="1" t="s">
-        <v>508</v>
-      </c>
       <c r="E172" s="1" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
@@ -8495,19 +8653,19 @@
         <v>172</v>
       </c>
       <c r="B173" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="C173" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="C173" s="1" t="s">
-        <v>523</v>
-      </c>
       <c r="D173" s="1" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>1158</v>
+        <v>1149</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
@@ -8515,19 +8673,19 @@
         <v>173</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
@@ -8535,19 +8693,19 @@
         <v>174</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
@@ -8555,19 +8713,19 @@
         <v>175</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>1159</v>
+        <v>1150</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
@@ -8575,19 +8733,19 @@
         <v>176</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="D177" s="6" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="F177" s="6" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
@@ -8595,19 +8753,19 @@
         <v>177</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>1159</v>
+        <v>1150</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
@@ -8615,19 +8773,19 @@
         <v>178</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
@@ -8635,19 +8793,19 @@
         <v>179</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
@@ -8655,19 +8813,19 @@
         <v>180</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
@@ -8675,19 +8833,19 @@
         <v>181</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
@@ -8695,19 +8853,19 @@
         <v>182</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
@@ -8715,19 +8873,19 @@
         <v>183</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
@@ -8735,19 +8893,19 @@
         <v>184</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
@@ -8755,19 +8913,19 @@
         <v>185</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
@@ -8775,19 +8933,19 @@
         <v>186</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
@@ -8795,19 +8953,19 @@
         <v>187</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
@@ -8815,19 +8973,19 @@
         <v>188</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
@@ -8835,19 +8993,19 @@
         <v>189</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
@@ -8855,19 +9013,19 @@
         <v>190</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
@@ -8875,19 +9033,19 @@
         <v>191</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
@@ -8895,19 +9053,19 @@
         <v>192</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
@@ -8915,19 +9073,19 @@
         <v>193</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
@@ -8935,19 +9093,19 @@
         <v>194</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>1025</v>
+        <v>1021</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>1027</v>
+        <v>1216</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>1028</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
@@ -8955,19 +9113,19 @@
         <v>195</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
@@ -8975,19 +9133,19 @@
         <v>196</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
@@ -8995,19 +9153,19 @@
         <v>197</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
@@ -9015,19 +9173,19 @@
         <v>198</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
@@ -9035,19 +9193,19 @@
         <v>199</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>664</v>
+        <v>1217</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
@@ -9055,19 +9213,19 @@
         <v>200</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>1160</v>
+        <v>1218</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
@@ -9075,19 +9233,19 @@
         <v>201</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
@@ -9095,19 +9253,19 @@
         <v>202</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
@@ -9115,19 +9273,19 @@
         <v>203</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="F204" s="1" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
@@ -9135,19 +9293,19 @@
         <v>204</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="F205" s="1" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
@@ -9155,19 +9313,19 @@
         <v>205</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="D206" s="6" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>1161</v>
+        <v>1151</v>
       </c>
       <c r="F206" s="6" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
@@ -9175,19 +9333,19 @@
         <v>206</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="D207" s="4" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="E207" s="3" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="F207" s="4" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
@@ -9195,19 +9353,19 @@
         <v>207</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D208" s="4" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="E208" s="3" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="F208" s="4" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
@@ -9215,19 +9373,19 @@
         <v>208</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D209" s="4" t="s">
+        <v>684</v>
+      </c>
+      <c r="E209" s="3" t="s">
         <v>686</v>
       </c>
-      <c r="E209" s="3" t="s">
-        <v>688</v>
-      </c>
       <c r="F209" s="4" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
@@ -9235,19 +9393,19 @@
         <v>209</v>
       </c>
       <c r="B210" s="1" t="s">
+        <v>970</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="D210" s="4" t="s">
+        <v>972</v>
+      </c>
+      <c r="E210" s="3" t="s">
+        <v>973</v>
+      </c>
+      <c r="F210" s="4" t="s">
         <v>974</v>
-      </c>
-      <c r="C210" s="1" t="s">
-        <v>975</v>
-      </c>
-      <c r="D210" s="4" t="s">
-        <v>976</v>
-      </c>
-      <c r="E210" s="3" t="s">
-        <v>977</v>
-      </c>
-      <c r="F210" s="4" t="s">
-        <v>978</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
@@ -9255,19 +9413,19 @@
         <v>210</v>
       </c>
       <c r="B211" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="C211" s="1" t="s">
         <v>909</v>
       </c>
-      <c r="C211" s="1" t="s">
+      <c r="D211" s="4" t="s">
         <v>911</v>
       </c>
-      <c r="D211" s="4" t="s">
+      <c r="E211" s="1" t="s">
+        <v>1152</v>
+      </c>
+      <c r="F211" s="4" t="s">
         <v>913</v>
-      </c>
-      <c r="E211" s="1" t="s">
-        <v>1162</v>
-      </c>
-      <c r="F211" s="4" t="s">
-        <v>915</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
@@ -9275,19 +9433,19 @@
         <v>211</v>
       </c>
       <c r="B212" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="C212" s="1" t="s">
         <v>910</v>
       </c>
-      <c r="C212" s="1" t="s">
+      <c r="D212" s="4" t="s">
         <v>912</v>
       </c>
-      <c r="D212" s="4" t="s">
+      <c r="E212" s="3" t="s">
         <v>914</v>
       </c>
-      <c r="E212" s="3" t="s">
-        <v>916</v>
-      </c>
       <c r="F212" s="4" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
@@ -9295,19 +9453,19 @@
         <v>212</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>1040</v>
+        <v>1035</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>1041</v>
+        <v>1036</v>
       </c>
       <c r="D213" s="4" t="s">
-        <v>1042</v>
+        <v>1037</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>1163</v>
+        <v>1153</v>
       </c>
       <c r="F213" s="4" t="s">
-        <v>1043</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
@@ -9315,19 +9473,19 @@
         <v>213</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="C214" s="1" t="s">
+        <v>918</v>
+      </c>
+      <c r="D214" s="1" t="s">
         <v>920</v>
       </c>
-      <c r="D214" s="1" t="s">
-        <v>922</v>
-      </c>
       <c r="E214" s="1" t="s">
-        <v>1164</v>
+        <v>1154</v>
       </c>
       <c r="F214" s="1" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
@@ -9335,19 +9493,19 @@
         <v>214</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>1165</v>
+        <v>1155</v>
       </c>
       <c r="F215" s="1" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
@@ -9355,19 +9513,19 @@
         <v>215</v>
       </c>
       <c r="B216" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="D216" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="E216" s="1" t="s">
+        <v>1156</v>
+      </c>
+      <c r="F216" s="1" t="s">
         <v>929</v>
-      </c>
-      <c r="C216" s="1" t="s">
-        <v>928</v>
-      </c>
-      <c r="D216" s="1" t="s">
-        <v>930</v>
-      </c>
-      <c r="E216" s="1" t="s">
-        <v>1166</v>
-      </c>
-      <c r="F216" s="1" t="s">
-        <v>931</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
@@ -9375,19 +9533,19 @@
         <v>216</v>
       </c>
       <c r="B217" s="1" t="s">
+        <v>930</v>
+      </c>
+      <c r="C217" s="1" t="s">
         <v>932</v>
       </c>
-      <c r="C217" s="1" t="s">
+      <c r="D217" s="1" t="s">
         <v>934</v>
       </c>
-      <c r="D217" s="1" t="s">
-        <v>936</v>
-      </c>
       <c r="E217" s="1" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="F217" s="1" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
@@ -9395,19 +9553,19 @@
         <v>217</v>
       </c>
       <c r="B218" s="1" t="s">
+        <v>931</v>
+      </c>
+      <c r="C218" s="1" t="s">
         <v>933</v>
       </c>
-      <c r="C218" s="1" t="s">
-        <v>935</v>
-      </c>
       <c r="D218" s="1" t="s">
+        <v>936</v>
+      </c>
+      <c r="E218" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="F218" s="1" t="s">
         <v>938</v>
-      </c>
-      <c r="E218" s="1" t="s">
-        <v>939</v>
-      </c>
-      <c r="F218" s="1" t="s">
-        <v>940</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
@@ -9415,19 +9573,19 @@
         <v>218</v>
       </c>
       <c r="B219" s="1" t="s">
+        <v>939</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="D219" s="1" t="s">
         <v>941</v>
       </c>
-      <c r="C219" s="1" t="s">
+      <c r="E219" s="1" t="s">
+        <v>1157</v>
+      </c>
+      <c r="F219" s="1" t="s">
         <v>942</v>
-      </c>
-      <c r="D219" s="1" t="s">
-        <v>943</v>
-      </c>
-      <c r="E219" s="1" t="s">
-        <v>1167</v>
-      </c>
-      <c r="F219" s="1" t="s">
-        <v>944</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
@@ -9435,19 +9593,19 @@
         <v>219</v>
       </c>
       <c r="B220" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="D220" s="1" t="s">
         <v>945</v>
       </c>
-      <c r="C220" s="1" t="s">
-        <v>946</v>
-      </c>
-      <c r="D220" s="1" t="s">
-        <v>947</v>
-      </c>
       <c r="E220" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="F220" s="1" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
@@ -9455,19 +9613,19 @@
         <v>220</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>1168</v>
+        <v>1158</v>
       </c>
       <c r="F221" s="1" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
@@ -9475,19 +9633,19 @@
         <v>221</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>960</v>
+        <v>1199</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>961</v>
+        <v>1219</v>
       </c>
       <c r="F222" s="1" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
@@ -9495,19 +9653,19 @@
         <v>222</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="D223" s="1" t="s">
         <v>244</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>1169</v>
+        <v>1159</v>
       </c>
       <c r="F223" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
@@ -9515,19 +9673,19 @@
         <v>223</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="F224" s="1" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
@@ -9535,19 +9693,19 @@
         <v>224</v>
       </c>
       <c r="B225" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="D225" s="1" t="s">
         <v>965</v>
       </c>
-      <c r="C225" s="1" t="s">
-        <v>966</v>
-      </c>
-      <c r="D225" s="1" t="s">
-        <v>969</v>
-      </c>
       <c r="E225" s="1" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
       <c r="F225" s="1" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
@@ -9555,19 +9713,19 @@
         <v>225</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>1170</v>
+        <v>1222</v>
       </c>
       <c r="F226" s="1" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
@@ -9575,19 +9733,19 @@
         <v>226</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="D227" s="6" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>1007</v>
+        <v>1003</v>
       </c>
       <c r="F227" s="1" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
@@ -9595,19 +9753,19 @@
         <v>227</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="F228" s="1" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
@@ -9615,19 +9773,19 @@
         <v>228</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="F229" s="1" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
@@ -9635,13 +9793,13 @@
         <v>229</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>1029</v>
+        <v>1024</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="E230" s="1" t="s">
         <v>346</v>
@@ -9655,19 +9813,19 @@
         <v>230</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>1030</v>
+        <v>1025</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>1171</v>
+        <v>1160</v>
       </c>
       <c r="F231" s="1" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
@@ -9675,19 +9833,19 @@
         <v>231</v>
       </c>
       <c r="B232" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="C232" s="1" t="s">
         <v>998</v>
       </c>
-      <c r="C232" s="1" t="s">
-        <v>1002</v>
-      </c>
       <c r="D232" s="1" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>1172</v>
+        <v>1161</v>
       </c>
       <c r="F232" s="1" t="s">
-        <v>1012</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
@@ -9695,19 +9853,19 @@
         <v>232</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="F233" s="1" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
@@ -9715,19 +9873,19 @@
         <v>233</v>
       </c>
       <c r="B234" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="D234" s="1" t="s">
         <v>1000</v>
       </c>
-      <c r="C234" s="1" t="s">
-        <v>1003</v>
-      </c>
-      <c r="D234" s="1" t="s">
-        <v>1004</v>
-      </c>
       <c r="E234" s="1" t="s">
-        <v>1173</v>
+        <v>1162</v>
       </c>
       <c r="F234" s="1" t="s">
-        <v>1015</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
@@ -9735,19 +9893,19 @@
         <v>234</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>1016</v>
+        <v>1012</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>1017</v>
+        <v>1013</v>
       </c>
       <c r="E235" s="1" t="s">
         <v>327</v>
       </c>
       <c r="F235" s="1" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
@@ -9755,19 +9913,19 @@
         <v>235</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>1031</v>
+        <v>1026</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>1032</v>
+        <v>1027</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>1034</v>
+        <v>1029</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>1174</v>
+        <v>1163</v>
       </c>
       <c r="F236" s="1" t="s">
-        <v>1033</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
@@ -9775,19 +9933,19 @@
         <v>236</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>1044</v>
+        <v>1039</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>1047</v>
+        <v>1042</v>
       </c>
       <c r="D237" s="6" t="s">
-        <v>1051</v>
+        <v>1046</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="F237" s="1" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
@@ -9795,19 +9953,19 @@
         <v>237</v>
       </c>
       <c r="B238" s="1" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D238" s="1" t="s">
         <v>1045</v>
       </c>
-      <c r="C238" s="1" t="s">
-        <v>1048</v>
-      </c>
-      <c r="D238" s="1" t="s">
+      <c r="E238" s="1" t="s">
+        <v>1049</v>
+      </c>
+      <c r="F238" s="1" t="s">
         <v>1050</v>
-      </c>
-      <c r="E238" s="1" t="s">
-        <v>1054</v>
-      </c>
-      <c r="F238" s="1" t="s">
-        <v>1055</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
@@ -9815,19 +9973,19 @@
         <v>238</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>1046</v>
+        <v>1041</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>1049</v>
+        <v>1044</v>
       </c>
       <c r="D239" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="E239" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="F239" s="1" t="s">
         <v>1052</v>
-      </c>
-      <c r="E239" s="1" t="s">
-        <v>1056</v>
-      </c>
-      <c r="F239" s="1" t="s">
-        <v>1057</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
@@ -9835,19 +9993,19 @@
         <v>239</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>1058</v>
+        <v>1053</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>1059</v>
+        <v>1054</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>1060</v>
+        <v>1055</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>1175</v>
+        <v>1223</v>
       </c>
       <c r="F240" s="1" t="s">
-        <v>1061</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
@@ -9855,19 +10013,19 @@
         <v>240</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>1062</v>
+        <v>1057</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>1063</v>
+        <v>1058</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>1064</v>
+        <v>1059</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>1065</v>
+        <v>1060</v>
       </c>
       <c r="F241" s="1" t="s">
-        <v>1066</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
@@ -9875,19 +10033,19 @@
         <v>241</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>1067</v>
+        <v>1062</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>1068</v>
+        <v>1063</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>1084</v>
+        <v>1079</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>1176</v>
+        <v>1164</v>
       </c>
       <c r="F242" s="1" t="s">
-        <v>1103</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
@@ -9895,19 +10053,19 @@
         <v>242</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>1069</v>
+        <v>1064</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>1069</v>
+        <v>1064</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>1085</v>
+        <v>1080</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>1104</v>
+        <v>1099</v>
       </c>
       <c r="F243" s="1" t="s">
-        <v>1105</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
@@ -9915,19 +10073,19 @@
         <v>243</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>1070</v>
+        <v>1065</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>1070</v>
+        <v>1065</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>1086</v>
+        <v>1081</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>1106</v>
+        <v>1101</v>
       </c>
       <c r="F244" s="1" t="s">
-        <v>1107</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
@@ -9935,19 +10093,19 @@
         <v>244</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>1071</v>
+        <v>1066</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>1088</v>
+        <v>1083</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>1087</v>
+        <v>1082</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>1108</v>
+        <v>1103</v>
       </c>
       <c r="F245" s="1" t="s">
-        <v>1109</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
@@ -9955,19 +10113,19 @@
         <v>245</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>1072</v>
+        <v>1067</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>1072</v>
+        <v>1067</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>1090</v>
+        <v>1085</v>
       </c>
       <c r="E246" s="1" t="s">
-        <v>1110</v>
+        <v>1105</v>
       </c>
       <c r="F246" s="1" t="s">
-        <v>1089</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
@@ -9975,19 +10133,19 @@
         <v>246</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>1073</v>
+        <v>1068</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>1073</v>
+        <v>1068</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>1092</v>
+        <v>1087</v>
       </c>
       <c r="E247" s="1" t="s">
-        <v>1111</v>
+        <v>1106</v>
       </c>
       <c r="F247" s="1" t="s">
-        <v>1091</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
@@ -9995,19 +10153,19 @@
         <v>247</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>1081</v>
+        <v>1076</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>1074</v>
+        <v>1069</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>1093</v>
+        <v>1088</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>1112</v>
+        <v>1107</v>
       </c>
       <c r="F248" s="1" t="s">
-        <v>1113</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
@@ -10015,19 +10173,19 @@
         <v>248</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>1082</v>
+        <v>1077</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>1075</v>
+        <v>1070</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>1177</v>
+        <v>1165</v>
       </c>
       <c r="F249" s="1" t="s">
-        <v>1114</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
@@ -10035,19 +10193,19 @@
         <v>249</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>1083</v>
+        <v>1078</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>1076</v>
+        <v>1071</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>1095</v>
+        <v>1090</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>1115</v>
+        <v>1110</v>
       </c>
       <c r="F250" s="1" t="s">
-        <v>1116</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
@@ -10055,19 +10213,19 @@
         <v>250</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>1097</v>
+        <v>1092</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>1096</v>
+        <v>1091</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>1098</v>
+        <v>1093</v>
       </c>
       <c r="E251" s="1" t="s">
-        <v>1117</v>
+        <v>1112</v>
       </c>
       <c r="F251" s="1" t="s">
-        <v>1118</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
@@ -10075,19 +10233,19 @@
         <v>251</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>1124</v>
+        <v>1119</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>1077</v>
+        <v>1072</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>1099</v>
+        <v>1094</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>1178</v>
+        <v>1166</v>
       </c>
       <c r="F252" s="1" t="s">
-        <v>1119</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
@@ -10095,19 +10253,19 @@
         <v>252</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>1078</v>
+        <v>1073</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>1100</v>
+        <v>1095</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>1120</v>
+        <v>1115</v>
       </c>
       <c r="F253" s="1" t="s">
-        <v>1121</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
@@ -10115,19 +10273,19 @@
         <v>253</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>1079</v>
+        <v>1074</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>1101</v>
+        <v>1096</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>1179</v>
+        <v>1167</v>
       </c>
       <c r="F254" s="1" t="s">
-        <v>1122</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
@@ -10135,19 +10293,19 @@
         <v>254</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>1080</v>
+        <v>1075</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>1080</v>
+        <v>1075</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>1102</v>
+        <v>1097</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>1180</v>
+        <v>1224</v>
       </c>
       <c r="F255" s="1" t="s">
-        <v>1123</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
@@ -10155,19 +10313,19 @@
         <v>255</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>1127</v>
+        <v>1122</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>1129</v>
+        <v>1124</v>
       </c>
       <c r="D256" s="6" t="s">
-        <v>1131</v>
+        <v>1126</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>1133</v>
+        <v>1128</v>
       </c>
       <c r="F256" s="1" t="s">
-        <v>1118</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
@@ -10175,424 +10333,504 @@
         <v>256</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
       <c r="C257" s="1" t="s">
+        <v>1125</v>
+      </c>
+      <c r="D257" s="1" t="s">
+        <v>1127</v>
+      </c>
+      <c r="E257" s="1" t="s">
+        <v>1129</v>
+      </c>
+      <c r="F257" s="1" t="s">
         <v>1130</v>
       </c>
-      <c r="D257" s="1" t="s">
+    </row>
+    <row r="258" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A258" s="16">
+        <v>257</v>
+      </c>
+      <c r="B258" s="17" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C258" s="17" t="s">
+        <v>1133</v>
+      </c>
+      <c r="D258" s="17" t="s">
         <v>1132</v>
       </c>
-      <c r="E257" s="1" t="s">
+      <c r="E258" s="17" t="s">
+        <v>1225</v>
+      </c>
+      <c r="F258" s="17" t="s">
         <v>1134</v>
       </c>
-      <c r="F257" s="1" t="s">
+    </row>
+    <row r="259" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A259" s="16">
+        <v>258</v>
+      </c>
+      <c r="B259" s="17" t="s">
         <v>1135</v>
       </c>
-    </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A258" s="2">
-        <v>257</v>
-      </c>
-      <c r="B258" s="1" t="s">
+      <c r="C259" s="17" t="s">
         <v>1136</v>
       </c>
-      <c r="C258" s="1" t="s">
+      <c r="D259" s="17" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E259" s="17" t="s">
+        <v>1226</v>
+      </c>
+      <c r="F259" s="17" t="s">
         <v>1138</v>
       </c>
-      <c r="D258" s="1" t="s">
-        <v>1137</v>
-      </c>
-      <c r="E258" s="1" t="s">
-        <v>1139</v>
-      </c>
-      <c r="F258" s="1" t="s">
-        <v>1140</v>
-      </c>
-    </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A259" s="2">
-        <v>258</v>
-      </c>
-      <c r="B259" s="1" t="s">
-        <v>1141</v>
-      </c>
-      <c r="C259" s="1" t="s">
-        <v>1142</v>
-      </c>
-      <c r="D259" s="1" t="s">
-        <v>1143</v>
-      </c>
-      <c r="E259" s="1" t="s">
-        <v>1144</v>
-      </c>
-      <c r="F259" s="1" t="s">
-        <v>1145</v>
-      </c>
-    </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A260" s="2">
+    </row>
+    <row r="260" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A260" s="9">
         <v>259</v>
       </c>
-      <c r="B260" s="1" t="s">
+      <c r="B260" s="10" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C260" s="10" t="s">
+        <v>1179</v>
+      </c>
+      <c r="D260" s="10" t="s">
+        <v>1178</v>
+      </c>
+      <c r="E260" s="10" t="s">
+        <v>1180</v>
+      </c>
+      <c r="F260" s="10" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A261" s="9">
+        <v>260</v>
+      </c>
+      <c r="B261" s="10" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C261" s="10" t="s">
+        <v>1184</v>
+      </c>
+      <c r="D261" s="14" t="s">
+        <v>1186</v>
+      </c>
+      <c r="E261" s="10" t="s">
+        <v>1188</v>
+      </c>
+      <c r="F261" s="10" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A262" s="9">
+        <v>261</v>
+      </c>
+      <c r="B262" s="10" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C262" s="10" t="s">
+        <v>1185</v>
+      </c>
+      <c r="D262" s="10" t="s">
+        <v>1187</v>
+      </c>
+      <c r="E262" s="10" t="s">
         <v>1190</v>
       </c>
-      <c r="C260" s="1" t="s">
+      <c r="F262" s="10" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A263" s="9">
+        <v>262</v>
+      </c>
+      <c r="B263" s="10" t="s">
         <v>1192</v>
       </c>
-      <c r="D260" s="1" t="s">
-        <v>1191</v>
-      </c>
-      <c r="E260" s="1" t="s">
+      <c r="C263" s="10" t="s">
         <v>1193</v>
       </c>
-      <c r="F260" s="1" t="s">
+      <c r="D263" s="10" t="s">
+        <v>1203</v>
+      </c>
+      <c r="E263" s="10" t="s">
+        <v>1220</v>
+      </c>
+      <c r="F263" s="10" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A264" s="9">
+        <v>263</v>
+      </c>
+      <c r="B264" s="10" t="s">
         <v>1194</v>
       </c>
-    </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A261" s="2">
-        <v>260</v>
-      </c>
-      <c r="B261" s="1" t="s">
+      <c r="C264" s="15" t="s">
+        <v>1202</v>
+      </c>
+      <c r="D264" s="10" t="s">
+        <v>1201</v>
+      </c>
+      <c r="E264" s="15" t="s">
+        <v>1207</v>
+      </c>
+      <c r="F264" s="10" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A265" s="9">
+        <v>264</v>
+      </c>
+      <c r="B265" s="10" t="s">
         <v>1195</v>
       </c>
-      <c r="C261" s="1" t="s">
+      <c r="C265" s="10" t="s">
+        <v>1198</v>
+      </c>
+      <c r="D265" s="10" t="s">
+        <v>1200</v>
+      </c>
+      <c r="E265" s="10" t="s">
+        <v>1221</v>
+      </c>
+      <c r="F265" s="10" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A266" s="9">
+        <v>265</v>
+      </c>
+      <c r="B266" s="10" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C266" s="10" t="s">
         <v>1197</v>
       </c>
-      <c r="D261" s="6" t="s">
-        <v>1199</v>
-      </c>
-      <c r="E261" s="1" t="s">
-        <v>1201</v>
-      </c>
-      <c r="F261" s="1" t="s">
-        <v>1202</v>
-      </c>
-    </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A262" s="2">
-        <v>261</v>
-      </c>
-      <c r="B262" s="1" t="s">
-        <v>1196</v>
-      </c>
-      <c r="C262" s="1" t="s">
-        <v>1198</v>
-      </c>
-      <c r="D262" s="1" t="s">
-        <v>1200</v>
-      </c>
-      <c r="E262" s="1" t="s">
-        <v>1203</v>
-      </c>
-      <c r="F262" s="1" t="s">
+      <c r="D266" s="10" t="s">
+        <v>1205</v>
+      </c>
+      <c r="E266" s="10" t="s">
+        <v>1210</v>
+      </c>
+      <c r="F266" s="10" t="s">
         <v>1204</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="B168:E169 B1:E3 B154:E155 B97:E152 B69:E72 B5:E6 B17:E29 B179:E200 B211:D211 B217:E218 B75:E84 B257:E258 D253:E253 C243:E248 B259:C259 B8:E14 B7:D7 B15:D15 B31:E38 B30:D30 B40:E46 B39:D39 B48:E66 B47:D47 B86:E89 B85:D85 B157:E159 B156:D156 B161:E161 B160:D160 B164:E166 B162:D163 B202:E205 B201:D201 B207:E207 B206:D206 B214:D216 B220:E220 B219:D219 B222:E222 B221:D221 B224:E225 B223:D223 B227:E230 B226:D226 B233:E233 B231:D232 B235:E235 B234:D234 B237:E241 B236:D236 C242:D242 C250:E251 C249:D249 D252 D256:E256 D254:D255 B260 B261:E1048576">
-    <cfRule type="cellIs" dxfId="60" priority="63" operator="equal">
+  <conditionalFormatting sqref="B168:E169 B1:E3 B154:E155 B97:E152 B69:E72 B5:E6 B17:E29 B179:E194 B211:D211 B217:E218 B75:E84 B257:E257 D253:E253 C243:E248 B259:C259 B8:E14 B7:D7 B15:D15 B31:E38 B30:D30 B40:E46 B39:D39 B48:E66 B47:D47 B86:E88 B85:D85 B157:E159 B156:D156 B161:E161 B160:D160 B164:E166 B162:D163 B202:E205 B207:E207 B206:D206 B214:D216 B220:E220 B219:D219 B222:E222 B221:D221 B224:E225 B223:D223 B227:E230 B226:D226 B233:E233 B231:D232 B235:E235 B234:D234 B237:E239 B236:D236 C242:D242 C250:E251 C249:D249 D252 D256:E256 D254:D255 B260 B261:E1048576 B89:D89 B196:E199 B195:D195 B200:D201 B241:E241 B240:D240 B258:D258">
+    <cfRule type="cellIs" dxfId="62" priority="64" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B167:E167">
-    <cfRule type="cellIs" dxfId="59" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="63" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B171:E172">
-    <cfRule type="cellIs" dxfId="58" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="62" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B153:D153">
-    <cfRule type="cellIs" dxfId="57" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="61" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B173:D173 B174 D174:E174">
-    <cfRule type="cellIs" dxfId="56" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="60" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B175:E175 B176 D176">
-    <cfRule type="cellIs" dxfId="55" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="59" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B177:E177 B178:D178">
-    <cfRule type="cellIs" dxfId="54" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="58" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C176">
-    <cfRule type="cellIs" dxfId="53" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="57" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C174">
-    <cfRule type="cellIs" dxfId="52" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="56" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B90:E90">
-    <cfRule type="cellIs" dxfId="51" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="55" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B91:D93">
-    <cfRule type="cellIs" dxfId="50" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="54" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E91:E92">
-    <cfRule type="cellIs" dxfId="49" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="53" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B94:D94 B96:D96">
-    <cfRule type="cellIs" dxfId="48" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="52" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E96">
-    <cfRule type="cellIs" dxfId="47" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="51" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:E4">
-    <cfRule type="cellIs" dxfId="46" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="50" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B67:E68">
-    <cfRule type="cellIs" dxfId="45" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="49" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B208:E209">
-    <cfRule type="cellIs" dxfId="44" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="48" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B73:D74">
-    <cfRule type="cellIs" dxfId="43" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="47" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E74">
-    <cfRule type="cellIs" dxfId="42" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="46" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E73">
-    <cfRule type="cellIs" dxfId="41" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="45" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16:D16">
-    <cfRule type="cellIs" dxfId="40" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="44" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E93">
-    <cfRule type="cellIs" dxfId="39" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="43" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B207:E207">
-    <cfRule type="cellIs" dxfId="38" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="42" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B206:D206">
-    <cfRule type="cellIs" dxfId="37" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="41" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F168:F169 F1:F3 F154:F166 F97:F152 F69:F72 F5:F15 F75:F89 F17:F66 F179:F207 F211 F214:F258 F261:F1048576">
-    <cfRule type="cellIs" dxfId="36" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="40" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F167">
-    <cfRule type="cellIs" dxfId="35" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="39" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F171:F172">
-    <cfRule type="cellIs" dxfId="34" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="38" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F153">
-    <cfRule type="cellIs" dxfId="33" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="37" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F173:F174">
-    <cfRule type="cellIs" dxfId="32" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="36" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F175:F176">
-    <cfRule type="cellIs" dxfId="31" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="35" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F177:F178">
-    <cfRule type="cellIs" dxfId="30" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="34" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F90">
-    <cfRule type="cellIs" dxfId="29" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="33" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F91:F93">
-    <cfRule type="cellIs" dxfId="28" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="32" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F94 F96">
-    <cfRule type="cellIs" dxfId="27" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="31" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="cellIs" dxfId="26" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="30" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F67:F68">
-    <cfRule type="cellIs" dxfId="25" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="29" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F208:F209">
-    <cfRule type="cellIs" dxfId="24" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="28" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F73:F74">
-    <cfRule type="cellIs" dxfId="23" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="27" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="cellIs" dxfId="22" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="26" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F207">
-    <cfRule type="cellIs" dxfId="21" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="25" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F206">
-    <cfRule type="cellIs" dxfId="20" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="24" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B212:E212">
-    <cfRule type="cellIs" dxfId="19" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="22" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F212">
-    <cfRule type="cellIs" dxfId="18" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="20" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B210:E210">
-    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="19" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F210">
-    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B170:D170">
-    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F170">
-    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="16" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B95:D95">
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E95">
-    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F95">
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B213:D213">
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F213">
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C252:C256">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B242:B251">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B252:B256">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
+      <formula>"TBD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D259">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+      <formula>"TBD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F259">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+      <formula>"TBD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E153">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+      <formula>"TBD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C260 E260">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>"TBD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D260 F260">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E160">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
-      <formula>"TBD"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D259:E259">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
-      <formula>"TBD"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F259">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>"TBD"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E153">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>"TBD"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C260 E260">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"TBD"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D260 F260">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>

--- a/server/corelib/lang/all_lang_V1.8.xlsx
+++ b/server/corelib/lang/all_lang_V1.8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\digiCenter\server\corelib\lang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4AC4B6C-7C7E-4A56-9065-989392911882}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A56147F5-9103-4A2A-BBD7-E84BEC8C9AD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1330" uniqueCount="1227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1330" uniqueCount="1228">
   <si>
     <t>name</t>
   </si>
@@ -776,9 +776,6 @@
   </si>
   <si>
     <t>新增</t>
-  </si>
-  <si>
-    <t>請新增使用者權限後按下Add</t>
   </si>
   <si>
     <t>等級</t>
@@ -2332,10 +2329,6 @@
     <t>Nächster Schritt</t>
   </si>
   <si>
-    <t>&lt;h3&gt;Betätige&lt;strong&gt;Retry&lt;/strong&gt; Wenn letzter Wert nicht zutreffend ist!&lt;/h3&gt;
-  &lt;h3&gt;Betätige &lt;strong&gt;Nächster Schritt&lt;/strong&gt; um an nächster Position zu messen!&lt;/h3&gt;</t>
-  </si>
-  <si>
     <t>Messdaten</t>
   </si>
   <si>
@@ -2533,9 +2526,6 @@
   </si>
   <si>
     <t>(选择权限)</t>
-  </si>
-  <si>
-    <t>请新增使用者权限后按下Add</t>
   </si>
   <si>
     <t>等级</t>
@@ -4078,6 +4068,23 @@
   </si>
   <si>
     <t>RotationTableMoveError. Bitte Motor überprüfen</t>
+  </si>
+  <si>
+    <t>&lt;h3&gt;Betätige &lt;strong&gt;Erneut versuchen&lt;/strong&gt; wenn letzter Wert nicht zutreffend ist!&lt;/h3&gt;
+  &lt;h3&gt;Betätige &lt;strong&gt;Nächster Schritt&lt;/strong&gt; um an nächster Position zu messen!&lt;/h3&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>請新增使用者權限後按下'新增'</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>请新增使用者权限后按下'新增'</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4232,27 +4239,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="63">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="61">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -5200,7 +5187,7 @@
   <dimension ref="A1:F266"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5222,10 +5209,10 @@
         <v>216</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -5242,10 +5229,10 @@
         <v>217</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -5262,7 +5249,7 @@
         <v>113</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>113</v>
@@ -5273,19 +5260,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="6" t="s">
         <v>590</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="E4" s="1" t="s">
         <v>591</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>592</v>
-      </c>
       <c r="F4" s="6" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -5302,10 +5289,10 @@
         <v>218</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -5319,13 +5306,13 @@
         <v>115</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -5339,13 +5326,13 @@
         <v>116</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -5365,7 +5352,7 @@
         <v>117</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -5373,7 +5360,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>118</v>
@@ -5393,7 +5380,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>119</v>
@@ -5402,7 +5389,7 @@
         <v>221</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>221</v>
@@ -5422,10 +5409,10 @@
         <v>222</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -5442,10 +5429,10 @@
         <v>217</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -5462,10 +5449,10 @@
         <v>223</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -5482,10 +5469,10 @@
         <v>224</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -5493,7 +5480,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>123</v>
@@ -5502,7 +5489,7 @@
         <v>225</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>225</v>
@@ -5513,19 +5500,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>696</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>697</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>698</v>
-      </c>
       <c r="E16" s="1" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -5542,10 +5529,10 @@
         <v>226</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -5562,10 +5549,10 @@
         <v>226</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -5582,10 +5569,10 @@
         <v>227</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -5602,10 +5589,10 @@
         <v>227</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -5622,10 +5609,10 @@
         <v>228</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -5642,10 +5629,10 @@
         <v>228</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -5662,10 +5649,10 @@
         <v>229</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -5682,10 +5669,10 @@
         <v>230</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -5702,10 +5689,10 @@
         <v>231</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -5722,10 +5709,10 @@
         <v>232</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -5742,10 +5729,10 @@
         <v>233</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -5762,7 +5749,7 @@
         <v>234</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>234</v>
@@ -5779,13 +5766,13 @@
         <v>133</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>133</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="30" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -5796,16 +5783,16 @@
         <v>24</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>1168</v>
+        <v>1165</v>
       </c>
       <c r="D30" s="12" t="s">
+        <v>1167</v>
+      </c>
+      <c r="E30" s="12" t="s">
         <v>1170</v>
       </c>
-      <c r="E30" s="12" t="s">
-        <v>1173</v>
-      </c>
       <c r="F30" s="12" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -5816,16 +5803,16 @@
         <v>25</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>1171</v>
+        <v>1168</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>1175</v>
+        <v>1172</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -5833,19 +5820,19 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>402</v>
-      </c>
       <c r="E32" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -5853,7 +5840,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>134</v>
@@ -5862,10 +5849,10 @@
         <v>235</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -5882,10 +5869,10 @@
         <v>236</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -5902,10 +5889,10 @@
         <v>237</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -5922,10 +5909,10 @@
         <v>238</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -5942,10 +5929,10 @@
         <v>239</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -5965,7 +5952,7 @@
         <v>139</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -5982,7 +5969,7 @@
         <v>241</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>241</v>
@@ -6002,10 +5989,10 @@
         <v>242</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -6022,10 +6009,10 @@
         <v>243</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -6042,10 +6029,10 @@
         <v>244</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -6062,10 +6049,10 @@
         <v>245</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -6082,10 +6069,10 @@
         <v>246</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -6102,7 +6089,7 @@
         <v>247</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>247</v>
@@ -6122,10 +6109,10 @@
         <v>243</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -6142,7 +6129,7 @@
         <v>241</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>241</v>
@@ -6162,10 +6149,10 @@
         <v>248</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -6182,10 +6169,10 @@
         <v>249</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -6202,10 +6189,10 @@
         <v>223</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -6222,10 +6209,10 @@
         <v>250</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -6239,10 +6226,10 @@
         <v>150</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>251</v>
+        <v>1225</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>251</v>
@@ -6259,13 +6246,13 @@
         <v>151</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>252</v>
+        <v>1226</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>771</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -6282,10 +6269,10 @@
         <v>243</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -6299,13 +6286,13 @@
         <v>152</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>152</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -6322,7 +6309,7 @@
         <v>251</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>251</v>
@@ -6333,19 +6320,19 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C57" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="D57" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>407</v>
-      </c>
       <c r="E57" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -6353,19 +6340,19 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -6373,19 +6360,19 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="C59" s="1" t="s">
-        <v>411</v>
-      </c>
       <c r="D59" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -6393,19 +6380,19 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -6413,19 +6400,19 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -6433,19 +6420,19 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -6453,19 +6440,19 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -6473,19 +6460,19 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -6493,19 +6480,19 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -6513,19 +6500,19 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -6533,19 +6520,19 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -6553,19 +6540,19 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -6573,19 +6560,19 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -6593,19 +6580,19 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -6613,19 +6600,19 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -6633,19 +6620,19 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -6653,19 +6640,19 @@
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
@@ -6673,19 +6660,19 @@
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E74" s="8" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -6693,19 +6680,19 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -6713,19 +6700,19 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -6733,19 +6720,19 @@
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -6753,19 +6740,19 @@
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="C78" s="1" t="s">
         <v>601</v>
       </c>
-      <c r="C78" s="1" t="s">
-        <v>602</v>
-      </c>
       <c r="D78" s="6" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="F78" s="6" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -6773,19 +6760,19 @@
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -6793,19 +6780,19 @@
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E80" s="3" t="s">
         <v>155</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -6813,19 +6800,19 @@
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -6833,19 +6820,19 @@
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -6853,19 +6840,19 @@
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -6873,19 +6860,19 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -6893,19 +6880,19 @@
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -6913,19 +6900,19 @@
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -6933,19 +6920,19 @@
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -6953,19 +6940,19 @@
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -6973,19 +6960,19 @@
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>1211</v>
+        <v>1208</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -6993,19 +6980,19 @@
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="D90" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="C90" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>570</v>
-      </c>
       <c r="E90" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -7013,19 +7000,19 @@
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -7033,19 +7020,19 @@
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="63" x14ac:dyDescent="0.25">
@@ -7053,19 +7040,19 @@
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="C93" s="5" t="s">
         <v>578</v>
       </c>
-      <c r="C93" s="5" t="s">
-        <v>579</v>
-      </c>
       <c r="D93" s="5" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>706</v>
+        <v>1224</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -7073,19 +7060,19 @@
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -7093,19 +7080,19 @@
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -7113,19 +7100,19 @@
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C96" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="D96" s="4" t="s">
         <v>585</v>
       </c>
-      <c r="D96" s="4" t="s">
-        <v>586</v>
-      </c>
       <c r="E96" s="1" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -7133,19 +7120,19 @@
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>153</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -7159,13 +7146,13 @@
         <v>154</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -7179,13 +7166,13 @@
         <v>155</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>155</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -7202,7 +7189,7 @@
         <v>247</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>247</v>
@@ -7219,13 +7206,13 @@
         <v>157</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
@@ -7239,13 +7226,13 @@
         <v>158</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -7259,13 +7246,13 @@
         <v>159</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
@@ -7279,13 +7266,13 @@
         <v>160</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -7299,13 +7286,13 @@
         <v>161</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -7316,16 +7303,16 @@
         <v>57</v>
       </c>
       <c r="C106" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="D106" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="D106" s="1" t="s">
+      <c r="E106" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="E106" s="1" t="s">
-        <v>509</v>
-      </c>
       <c r="F106" s="1" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
@@ -7339,13 +7326,13 @@
         <v>162</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
@@ -7359,13 +7346,13 @@
         <v>163</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
@@ -7379,13 +7366,13 @@
         <v>164</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
@@ -7399,13 +7386,13 @@
         <v>165</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
@@ -7419,13 +7406,13 @@
         <v>166</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
@@ -7439,13 +7426,13 @@
         <v>167</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
@@ -7459,13 +7446,13 @@
         <v>168</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -7479,13 +7466,13 @@
         <v>169</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
@@ -7499,13 +7486,13 @@
         <v>170</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
@@ -7519,13 +7506,13 @@
         <v>171</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
@@ -7539,13 +7526,13 @@
         <v>172</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
@@ -7559,13 +7546,13 @@
         <v>173</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>173</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
@@ -7579,13 +7566,13 @@
         <v>174</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
@@ -7599,13 +7586,13 @@
         <v>175</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
@@ -7619,13 +7606,13 @@
         <v>176</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
@@ -7639,13 +7626,13 @@
         <v>177</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
@@ -7659,13 +7646,13 @@
         <v>178</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
@@ -7679,13 +7666,13 @@
         <v>179</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
@@ -7699,13 +7686,13 @@
         <v>180</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
@@ -7719,13 +7706,13 @@
         <v>181</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
@@ -7739,13 +7726,13 @@
         <v>182</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
@@ -7759,13 +7746,13 @@
         <v>183</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
@@ -7779,13 +7766,13 @@
         <v>184</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
@@ -7799,13 +7786,13 @@
         <v>185</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
@@ -7819,13 +7806,13 @@
         <v>186</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
@@ -7839,13 +7826,13 @@
         <v>187</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
@@ -7859,13 +7846,13 @@
         <v>188</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
@@ -7879,13 +7866,13 @@
         <v>189</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
@@ -7899,13 +7886,13 @@
         <v>190</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
@@ -7919,13 +7906,13 @@
         <v>191</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
@@ -7939,13 +7926,13 @@
         <v>192</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
@@ -7959,13 +7946,13 @@
         <v>193</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
@@ -7979,13 +7966,13 @@
         <v>194</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
@@ -7999,13 +7986,13 @@
         <v>195</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
@@ -8019,13 +8006,13 @@
         <v>196</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
@@ -8039,13 +8026,13 @@
         <v>197</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
@@ -8059,13 +8046,13 @@
         <v>198</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
@@ -8079,13 +8066,13 @@
         <v>199</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
@@ -8099,13 +8086,13 @@
         <v>200</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
@@ -8119,13 +8106,13 @@
         <v>201</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
@@ -8139,13 +8126,13 @@
         <v>202</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
@@ -8159,13 +8146,13 @@
         <v>203</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
@@ -8179,13 +8166,13 @@
         <v>204</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
@@ -8193,19 +8180,19 @@
         <v>149</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>205</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
@@ -8213,19 +8200,19 @@
         <v>150</v>
       </c>
       <c r="B151" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="C151" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="C151" s="1" t="s">
+      <c r="D151" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="D151" s="1" t="s">
-        <v>516</v>
-      </c>
       <c r="E151" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
@@ -8233,19 +8220,19 @@
         <v>151</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C152" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="D152" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="D152" s="1" t="s">
-        <v>511</v>
-      </c>
       <c r="E152" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
@@ -8253,19 +8240,19 @@
         <v>152</v>
       </c>
       <c r="B153" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D153" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="C153" s="1" t="s">
-        <v>1172</v>
-      </c>
-      <c r="D153" s="1" t="s">
-        <v>518</v>
-      </c>
       <c r="E153" s="3" t="s">
-        <v>1214</v>
+        <v>1211</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
@@ -8279,13 +8266,13 @@
         <v>206</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
@@ -8299,13 +8286,13 @@
         <v>207</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
@@ -8319,13 +8306,13 @@
         <v>208</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
@@ -8339,13 +8326,13 @@
         <v>209</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
@@ -8359,13 +8346,13 @@
         <v>210</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
@@ -8379,13 +8366,13 @@
         <v>211</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
@@ -8399,13 +8386,13 @@
         <v>212</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
@@ -8419,13 +8406,13 @@
         <v>213</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
@@ -8439,13 +8426,13 @@
         <v>214</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
@@ -8459,13 +8446,13 @@
         <v>215</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
@@ -8473,19 +8460,19 @@
         <v>163</v>
       </c>
       <c r="B164" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="C164" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="C164" s="1" t="s">
+      <c r="D164" s="4" t="s">
         <v>486</v>
       </c>
-      <c r="D164" s="4" t="s">
-        <v>487</v>
-      </c>
       <c r="E164" s="4" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="F164" s="4" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
@@ -8493,19 +8480,19 @@
         <v>164</v>
       </c>
       <c r="B165" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="C165" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="C165" s="1" t="s">
+      <c r="D165" s="4" t="s">
         <v>489</v>
       </c>
-      <c r="D165" s="4" t="s">
-        <v>490</v>
-      </c>
       <c r="E165" s="4" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="F165" s="4" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
@@ -8513,19 +8500,19 @@
         <v>165</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C166" s="1" t="s">
+        <v>976</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>977</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>978</v>
+      </c>
+      <c r="F166" s="1" t="s">
         <v>979</v>
-      </c>
-      <c r="D166" s="1" t="s">
-        <v>980</v>
-      </c>
-      <c r="E166" s="1" t="s">
-        <v>981</v>
-      </c>
-      <c r="F166" s="1" t="s">
-        <v>982</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
@@ -8533,19 +8520,19 @@
         <v>166</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
@@ -8553,19 +8540,19 @@
         <v>167</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C168" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="D168" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="D168" s="1" t="s">
-        <v>492</v>
-      </c>
       <c r="E168" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
@@ -8573,19 +8560,19 @@
         <v>168</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
@@ -8593,19 +8580,19 @@
         <v>169</v>
       </c>
       <c r="B170" s="3" t="s">
+        <v>972</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>973</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>974</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>1145</v>
+      </c>
+      <c r="F170" s="1" t="s">
         <v>975</v>
-      </c>
-      <c r="C170" s="1" t="s">
-        <v>976</v>
-      </c>
-      <c r="D170" s="1" t="s">
-        <v>977</v>
-      </c>
-      <c r="E170" s="1" t="s">
-        <v>1148</v>
-      </c>
-      <c r="F170" s="1" t="s">
-        <v>978</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
@@ -8613,19 +8600,19 @@
         <v>170</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
@@ -8633,19 +8620,19 @@
         <v>171</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
@@ -8653,19 +8640,19 @@
         <v>172</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C173" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="D173" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="D173" s="1" t="s">
-        <v>522</v>
-      </c>
       <c r="E173" s="1" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
@@ -8673,19 +8660,19 @@
         <v>173</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
@@ -8693,19 +8680,19 @@
         <v>174</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
@@ -8713,19 +8700,19 @@
         <v>175</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
@@ -8733,19 +8720,19 @@
         <v>176</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D177" s="6" t="s">
+        <v>562</v>
+      </c>
+      <c r="E177" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="E177" s="1" t="s">
-        <v>564</v>
-      </c>
       <c r="F177" s="6" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
@@ -8753,19 +8740,19 @@
         <v>177</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
@@ -8773,19 +8760,19 @@
         <v>178</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C179" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="D179" s="1" t="s">
         <v>627</v>
       </c>
-      <c r="D179" s="1" t="s">
-        <v>628</v>
-      </c>
       <c r="E179" s="1" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
@@ -8793,19 +8780,19 @@
         <v>179</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C180" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="D180" s="1" t="s">
         <v>629</v>
       </c>
-      <c r="D180" s="1" t="s">
-        <v>630</v>
-      </c>
       <c r="E180" s="1" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
@@ -8813,19 +8800,19 @@
         <v>180</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C181" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="D181" s="1" t="s">
         <v>631</v>
       </c>
-      <c r="D181" s="1" t="s">
-        <v>632</v>
-      </c>
       <c r="E181" s="1" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
@@ -8833,19 +8820,19 @@
         <v>181</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C182" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="D182" s="1" t="s">
         <v>633</v>
       </c>
-      <c r="D182" s="1" t="s">
-        <v>634</v>
-      </c>
       <c r="E182" s="1" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
@@ -8853,19 +8840,19 @@
         <v>182</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C183" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="D183" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="D183" s="1" t="s">
-        <v>636</v>
-      </c>
       <c r="E183" s="1" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
@@ -8873,19 +8860,19 @@
         <v>183</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C184" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="D184" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="D184" s="1" t="s">
-        <v>638</v>
-      </c>
       <c r="E184" s="1" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
@@ -8893,19 +8880,19 @@
         <v>184</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C185" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="D185" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="D185" s="1" t="s">
-        <v>640</v>
-      </c>
       <c r="E185" s="1" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
@@ -8913,19 +8900,19 @@
         <v>185</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C186" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="D186" s="1" t="s">
         <v>641</v>
       </c>
-      <c r="D186" s="1" t="s">
-        <v>642</v>
-      </c>
       <c r="E186" s="1" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
@@ -8933,19 +8920,19 @@
         <v>186</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C187" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="D187" s="1" t="s">
         <v>643</v>
       </c>
-      <c r="D187" s="1" t="s">
-        <v>644</v>
-      </c>
       <c r="E187" s="1" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
@@ -8953,19 +8940,19 @@
         <v>187</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="C188" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="D188" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="D188" s="1" t="s">
-        <v>646</v>
-      </c>
       <c r="E188" s="1" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
@@ -8973,19 +8960,19 @@
         <v>188</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C189" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="D189" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="D189" s="1" t="s">
-        <v>648</v>
-      </c>
       <c r="E189" s="1" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
@@ -8993,19 +8980,19 @@
         <v>189</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
@@ -9013,19 +9000,19 @@
         <v>190</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
@@ -9033,19 +9020,19 @@
         <v>191</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
@@ -9053,19 +9040,19 @@
         <v>192</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
@@ -9073,19 +9060,19 @@
         <v>193</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C194" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="D194" s="1" t="s">
         <v>653</v>
       </c>
-      <c r="D194" s="1" t="s">
-        <v>654</v>
-      </c>
       <c r="E194" s="1" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
@@ -9093,19 +9080,19 @@
         <v>194</v>
       </c>
       <c r="B195" s="1" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>1213</v>
+      </c>
+      <c r="F195" s="1" t="s">
         <v>1020</v>
-      </c>
-      <c r="C195" s="1" t="s">
-        <v>1021</v>
-      </c>
-      <c r="D195" s="1" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E195" s="1" t="s">
-        <v>1216</v>
-      </c>
-      <c r="F195" s="1" t="s">
-        <v>1023</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
@@ -9113,19 +9100,19 @@
         <v>195</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C196" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="D196" s="1" t="s">
         <v>655</v>
       </c>
-      <c r="D196" s="1" t="s">
-        <v>656</v>
-      </c>
       <c r="E196" s="1" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
@@ -9133,19 +9120,19 @@
         <v>196</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C197" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="D197" s="1" t="s">
         <v>657</v>
       </c>
-      <c r="D197" s="1" t="s">
-        <v>658</v>
-      </c>
       <c r="E197" s="1" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
@@ -9153,19 +9140,19 @@
         <v>197</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
@@ -9173,19 +9160,19 @@
         <v>198</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C199" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="D199" s="1" t="s">
         <v>660</v>
       </c>
-      <c r="D199" s="1" t="s">
-        <v>661</v>
-      </c>
       <c r="E199" s="1" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
@@ -9193,19 +9180,19 @@
         <v>199</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C200" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="D200" s="1" t="s">
         <v>662</v>
       </c>
-      <c r="D200" s="1" t="s">
-        <v>663</v>
-      </c>
       <c r="E200" s="1" t="s">
-        <v>1217</v>
+        <v>1214</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
@@ -9213,19 +9200,19 @@
         <v>200</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C201" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="D201" s="1" t="s">
         <v>664</v>
       </c>
-      <c r="D201" s="1" t="s">
-        <v>665</v>
-      </c>
       <c r="E201" s="1" t="s">
-        <v>1218</v>
+        <v>1215</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
@@ -9233,19 +9220,19 @@
         <v>201</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C202" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="D202" s="1" t="s">
         <v>666</v>
       </c>
-      <c r="D202" s="1" t="s">
-        <v>667</v>
-      </c>
       <c r="E202" s="1" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
@@ -9253,19 +9240,19 @@
         <v>202</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C203" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="D203" s="1" t="s">
         <v>668</v>
       </c>
-      <c r="D203" s="1" t="s">
-        <v>669</v>
-      </c>
       <c r="E203" s="1" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
@@ -9273,19 +9260,19 @@
         <v>203</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C204" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="D204" s="1" t="s">
         <v>670</v>
       </c>
-      <c r="D204" s="1" t="s">
-        <v>671</v>
-      </c>
       <c r="E204" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="F204" s="1" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
@@ -9293,19 +9280,19 @@
         <v>204</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C205" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="D205" s="1" t="s">
         <v>672</v>
       </c>
-      <c r="D205" s="1" t="s">
-        <v>673</v>
-      </c>
       <c r="E205" s="1" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="F205" s="1" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
@@ -9313,19 +9300,19 @@
         <v>205</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="D206" s="6" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>1151</v>
+        <v>1148</v>
       </c>
       <c r="F206" s="6" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
@@ -9333,19 +9320,19 @@
         <v>206</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="D207" s="4" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="E207" s="3" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="F207" s="4" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
@@ -9353,19 +9340,19 @@
         <v>207</v>
       </c>
       <c r="B208" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D208" s="4" t="s">
         <v>682</v>
       </c>
-      <c r="C208" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="D208" s="4" t="s">
-        <v>683</v>
-      </c>
       <c r="E208" s="3" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="F208" s="4" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
@@ -9373,19 +9360,19 @@
         <v>208</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D209" s="4" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E209" s="3" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="F209" s="4" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
@@ -9393,19 +9380,19 @@
         <v>209</v>
       </c>
       <c r="B210" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>968</v>
+      </c>
+      <c r="D210" s="4" t="s">
+        <v>969</v>
+      </c>
+      <c r="E210" s="3" t="s">
         <v>970</v>
       </c>
-      <c r="C210" s="1" t="s">
+      <c r="F210" s="4" t="s">
         <v>971</v>
-      </c>
-      <c r="D210" s="4" t="s">
-        <v>972</v>
-      </c>
-      <c r="E210" s="3" t="s">
-        <v>973</v>
-      </c>
-      <c r="F210" s="4" t="s">
-        <v>974</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
@@ -9413,19 +9400,19 @@
         <v>210</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="D211" s="4" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
       <c r="F211" s="4" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
@@ -9433,19 +9420,19 @@
         <v>211</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="D212" s="4" t="s">
+        <v>909</v>
+      </c>
+      <c r="E212" s="3" t="s">
+        <v>911</v>
+      </c>
+      <c r="F212" s="4" t="s">
         <v>912</v>
-      </c>
-      <c r="E212" s="3" t="s">
-        <v>914</v>
-      </c>
-      <c r="F212" s="4" t="s">
-        <v>915</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
@@ -9453,19 +9440,19 @@
         <v>212</v>
       </c>
       <c r="B213" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D213" s="4" t="s">
+        <v>1034</v>
+      </c>
+      <c r="E213" s="1" t="s">
+        <v>1150</v>
+      </c>
+      <c r="F213" s="4" t="s">
         <v>1035</v>
-      </c>
-      <c r="C213" s="1" t="s">
-        <v>1036</v>
-      </c>
-      <c r="D213" s="4" t="s">
-        <v>1037</v>
-      </c>
-      <c r="E213" s="1" t="s">
-        <v>1153</v>
-      </c>
-      <c r="F213" s="4" t="s">
-        <v>1038</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
@@ -9473,19 +9460,19 @@
         <v>213</v>
       </c>
       <c r="B214" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="D214" s="1" t="s">
         <v>917</v>
       </c>
-      <c r="C214" s="1" t="s">
+      <c r="E214" s="1" t="s">
+        <v>1151</v>
+      </c>
+      <c r="F214" s="1" t="s">
         <v>918</v>
-      </c>
-      <c r="D214" s="1" t="s">
-        <v>920</v>
-      </c>
-      <c r="E214" s="1" t="s">
-        <v>1154</v>
-      </c>
-      <c r="F214" s="1" t="s">
-        <v>921</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
@@ -9493,19 +9480,19 @@
         <v>214</v>
       </c>
       <c r="B215" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="C215" s="1" t="s">
         <v>916</v>
       </c>
-      <c r="C215" s="1" t="s">
+      <c r="D215" s="1" t="s">
         <v>919</v>
       </c>
-      <c r="D215" s="1" t="s">
-        <v>922</v>
-      </c>
       <c r="E215" s="1" t="s">
-        <v>1155</v>
+        <v>1152</v>
       </c>
       <c r="F215" s="1" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
@@ -9513,19 +9500,19 @@
         <v>215</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="C216" s="1" t="s">
+        <v>923</v>
+      </c>
+      <c r="D216" s="1" t="s">
+        <v>925</v>
+      </c>
+      <c r="E216" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="F216" s="1" t="s">
         <v>926</v>
-      </c>
-      <c r="D216" s="1" t="s">
-        <v>928</v>
-      </c>
-      <c r="E216" s="1" t="s">
-        <v>1156</v>
-      </c>
-      <c r="F216" s="1" t="s">
-        <v>929</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
@@ -9533,19 +9520,19 @@
         <v>216</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="C217" s="1" t="s">
+        <v>929</v>
+      </c>
+      <c r="D217" s="1" t="s">
+        <v>931</v>
+      </c>
+      <c r="E217" s="1" t="s">
         <v>932</v>
       </c>
-      <c r="D217" s="1" t="s">
-        <v>934</v>
-      </c>
-      <c r="E217" s="1" t="s">
-        <v>935</v>
-      </c>
       <c r="F217" s="1" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
@@ -9553,19 +9540,19 @@
         <v>217</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="C218" s="1" t="s">
+        <v>930</v>
+      </c>
+      <c r="D218" s="1" t="s">
         <v>933</v>
       </c>
-      <c r="D218" s="1" t="s">
-        <v>936</v>
-      </c>
       <c r="E218" s="1" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="F218" s="1" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
@@ -9573,19 +9560,19 @@
         <v>218</v>
       </c>
       <c r="B219" s="1" t="s">
+        <v>936</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="D219" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="E219" s="1" t="s">
+        <v>1154</v>
+      </c>
+      <c r="F219" s="1" t="s">
         <v>939</v>
-      </c>
-      <c r="C219" s="1" t="s">
-        <v>940</v>
-      </c>
-      <c r="D219" s="1" t="s">
-        <v>941</v>
-      </c>
-      <c r="E219" s="1" t="s">
-        <v>1157</v>
-      </c>
-      <c r="F219" s="1" t="s">
-        <v>942</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
@@ -9593,19 +9580,19 @@
         <v>219</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="F220" s="1" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
@@ -9613,19 +9600,19 @@
         <v>220</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
       <c r="F221" s="1" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
@@ -9633,19 +9620,19 @@
         <v>221</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>1199</v>
+        <v>1196</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>1219</v>
+        <v>1216</v>
       </c>
       <c r="F222" s="1" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
@@ -9653,19 +9640,19 @@
         <v>222</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="D223" s="1" t="s">
         <v>244</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>1159</v>
+        <v>1156</v>
       </c>
       <c r="F223" s="1" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
@@ -9673,19 +9660,19 @@
         <v>223</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="F224" s="1" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
@@ -9693,19 +9680,19 @@
         <v>224</v>
       </c>
       <c r="B225" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="D225" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="E225" s="1" t="s">
         <v>961</v>
       </c>
-      <c r="C225" s="1" t="s">
-        <v>962</v>
-      </c>
-      <c r="D225" s="1" t="s">
-        <v>965</v>
-      </c>
-      <c r="E225" s="1" t="s">
-        <v>964</v>
-      </c>
       <c r="F225" s="1" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
@@ -9713,19 +9700,19 @@
         <v>225</v>
       </c>
       <c r="B226" s="1" t="s">
+        <v>963</v>
+      </c>
+      <c r="C226" s="1" t="s">
         <v>966</v>
       </c>
-      <c r="C226" s="1" t="s">
-        <v>969</v>
-      </c>
       <c r="D226" s="1" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
       <c r="F226" s="1" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
@@ -9733,19 +9720,19 @@
         <v>226</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="D227" s="6" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="F227" s="1" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
@@ -9753,19 +9740,19 @@
         <v>227</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="F228" s="1" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
@@ -9773,19 +9760,19 @@
         <v>228</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="F229" s="1" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
@@ -9793,16 +9780,16 @@
         <v>229</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F230" s="1" t="s">
         <v>251</v>
@@ -9813,19 +9800,19 @@
         <v>230</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
       <c r="F231" s="1" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
@@ -9833,19 +9820,19 @@
         <v>231</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="C232" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="D232" s="1" t="s">
         <v>998</v>
       </c>
-      <c r="D232" s="1" t="s">
-        <v>1001</v>
-      </c>
       <c r="E232" s="1" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
       <c r="F232" s="1" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
@@ -9853,19 +9840,19 @@
         <v>232</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="F233" s="1" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
@@ -9873,19 +9860,19 @@
         <v>233</v>
       </c>
       <c r="B234" s="1" t="s">
+        <v>993</v>
+      </c>
+      <c r="C234" s="1" t="s">
         <v>996</v>
       </c>
-      <c r="C234" s="1" t="s">
-        <v>999</v>
-      </c>
       <c r="D234" s="1" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>1162</v>
+        <v>1159</v>
       </c>
       <c r="F234" s="1" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
@@ -9893,19 +9880,19 @@
         <v>234</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F235" s="1" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
@@ -9913,19 +9900,19 @@
         <v>235</v>
       </c>
       <c r="B236" s="1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D236" s="1" t="s">
         <v>1026</v>
       </c>
-      <c r="C236" s="1" t="s">
-        <v>1027</v>
-      </c>
-      <c r="D236" s="1" t="s">
-        <v>1029</v>
-      </c>
       <c r="E236" s="1" t="s">
-        <v>1163</v>
+        <v>1160</v>
       </c>
       <c r="F236" s="1" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
@@ -9933,19 +9920,19 @@
         <v>236</v>
       </c>
       <c r="B237" s="1" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C237" s="1" t="s">
         <v>1039</v>
       </c>
-      <c r="C237" s="1" t="s">
-        <v>1042</v>
-      </c>
       <c r="D237" s="6" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="F237" s="1" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
@@ -9953,19 +9940,19 @@
         <v>237</v>
       </c>
       <c r="B238" s="1" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C238" s="1" t="s">
         <v>1040</v>
       </c>
-      <c r="C238" s="1" t="s">
-        <v>1043</v>
-      </c>
       <c r="D238" s="1" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="F238" s="1" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
@@ -9973,19 +9960,19 @@
         <v>238</v>
       </c>
       <c r="B239" s="1" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C239" s="1" t="s">
         <v>1041</v>
       </c>
-      <c r="C239" s="1" t="s">
+      <c r="D239" s="1" t="s">
         <v>1044</v>
       </c>
-      <c r="D239" s="1" t="s">
-        <v>1047</v>
-      </c>
       <c r="E239" s="1" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="F239" s="1" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
@@ -9993,19 +9980,19 @@
         <v>239</v>
       </c>
       <c r="B240" s="1" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D240" s="1" t="s">
+        <v>1052</v>
+      </c>
+      <c r="E240" s="1" t="s">
+        <v>1220</v>
+      </c>
+      <c r="F240" s="1" t="s">
         <v>1053</v>
-      </c>
-      <c r="C240" s="1" t="s">
-        <v>1054</v>
-      </c>
-      <c r="D240" s="1" t="s">
-        <v>1055</v>
-      </c>
-      <c r="E240" s="1" t="s">
-        <v>1223</v>
-      </c>
-      <c r="F240" s="1" t="s">
-        <v>1056</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
@@ -10013,19 +10000,19 @@
         <v>240</v>
       </c>
       <c r="B241" s="1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D241" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="E241" s="1" t="s">
         <v>1057</v>
       </c>
-      <c r="C241" s="1" t="s">
+      <c r="F241" s="1" t="s">
         <v>1058</v>
-      </c>
-      <c r="D241" s="1" t="s">
-        <v>1059</v>
-      </c>
-      <c r="E241" s="1" t="s">
-        <v>1060</v>
-      </c>
-      <c r="F241" s="1" t="s">
-        <v>1061</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
@@ -10033,19 +10020,19 @@
         <v>241</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>1164</v>
+        <v>1161</v>
       </c>
       <c r="F242" s="1" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
@@ -10053,19 +10040,19 @@
         <v>242</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="F243" s="1" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
@@ -10073,19 +10060,19 @@
         <v>243</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
       <c r="F244" s="1" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
@@ -10093,19 +10080,19 @@
         <v>244</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
       <c r="F245" s="1" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
@@ -10113,19 +10100,19 @@
         <v>245</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="E246" s="1" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
       <c r="F246" s="1" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
@@ -10133,19 +10120,19 @@
         <v>246</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
       <c r="E247" s="1" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="F247" s="1" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
@@ -10153,19 +10140,19 @@
         <v>247</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="F248" s="1" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
@@ -10173,19 +10160,19 @@
         <v>248</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>1165</v>
+        <v>1162</v>
       </c>
       <c r="F249" s="1" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
@@ -10193,19 +10180,19 @@
         <v>249</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
       <c r="F250" s="1" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
@@ -10213,19 +10200,19 @@
         <v>250</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="E251" s="1" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="F251" s="1" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
@@ -10233,19 +10220,19 @@
         <v>251</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
       <c r="F252" s="1" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
@@ -10253,19 +10240,19 @@
         <v>252</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
       <c r="F253" s="1" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
@@ -10273,19 +10260,19 @@
         <v>253</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>1167</v>
+        <v>1164</v>
       </c>
       <c r="F254" s="1" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
@@ -10293,19 +10280,19 @@
         <v>254</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>1224</v>
+        <v>1221</v>
       </c>
       <c r="F255" s="1" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
@@ -10313,19 +10300,19 @@
         <v>255</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
       <c r="D256" s="6" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="F256" s="1" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
@@ -10333,19 +10320,19 @@
         <v>256</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
       <c r="D257" s="1" t="s">
+        <v>1124</v>
+      </c>
+      <c r="E257" s="1" t="s">
+        <v>1126</v>
+      </c>
+      <c r="F257" s="1" t="s">
         <v>1127</v>
-      </c>
-      <c r="E257" s="1" t="s">
-        <v>1129</v>
-      </c>
-      <c r="F257" s="1" t="s">
-        <v>1130</v>
       </c>
     </row>
     <row r="258" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -10353,19 +10340,19 @@
         <v>257</v>
       </c>
       <c r="B258" s="17" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C258" s="17" t="s">
+        <v>1130</v>
+      </c>
+      <c r="D258" s="17" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E258" s="17" t="s">
+        <v>1222</v>
+      </c>
+      <c r="F258" s="17" t="s">
         <v>1131</v>
-      </c>
-      <c r="C258" s="17" t="s">
-        <v>1133</v>
-      </c>
-      <c r="D258" s="17" t="s">
-        <v>1132</v>
-      </c>
-      <c r="E258" s="17" t="s">
-        <v>1225</v>
-      </c>
-      <c r="F258" s="17" t="s">
-        <v>1134</v>
       </c>
     </row>
     <row r="259" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -10373,19 +10360,19 @@
         <v>258</v>
       </c>
       <c r="B259" s="17" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C259" s="17" t="s">
+        <v>1133</v>
+      </c>
+      <c r="D259" s="17" t="s">
+        <v>1134</v>
+      </c>
+      <c r="E259" s="17" t="s">
+        <v>1223</v>
+      </c>
+      <c r="F259" s="17" t="s">
         <v>1135</v>
-      </c>
-      <c r="C259" s="17" t="s">
-        <v>1136</v>
-      </c>
-      <c r="D259" s="17" t="s">
-        <v>1137</v>
-      </c>
-      <c r="E259" s="17" t="s">
-        <v>1226</v>
-      </c>
-      <c r="F259" s="17" t="s">
-        <v>1138</v>
       </c>
     </row>
     <row r="260" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -10393,19 +10380,19 @@
         <v>259</v>
       </c>
       <c r="B260" s="10" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C260" s="10" t="s">
+        <v>1176</v>
+      </c>
+      <c r="D260" s="10" t="s">
+        <v>1175</v>
+      </c>
+      <c r="E260" s="10" t="s">
         <v>1177</v>
       </c>
-      <c r="C260" s="10" t="s">
-        <v>1179</v>
-      </c>
-      <c r="D260" s="10" t="s">
+      <c r="F260" s="10" t="s">
         <v>1178</v>
-      </c>
-      <c r="E260" s="10" t="s">
-        <v>1180</v>
-      </c>
-      <c r="F260" s="10" t="s">
-        <v>1181</v>
       </c>
     </row>
     <row r="261" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -10413,19 +10400,19 @@
         <v>260</v>
       </c>
       <c r="B261" s="10" t="s">
-        <v>1182</v>
+        <v>1179</v>
       </c>
       <c r="C261" s="10" t="s">
-        <v>1184</v>
+        <v>1181</v>
       </c>
       <c r="D261" s="14" t="s">
+        <v>1183</v>
+      </c>
+      <c r="E261" s="10" t="s">
+        <v>1185</v>
+      </c>
+      <c r="F261" s="10" t="s">
         <v>1186</v>
-      </c>
-      <c r="E261" s="10" t="s">
-        <v>1188</v>
-      </c>
-      <c r="F261" s="10" t="s">
-        <v>1189</v>
       </c>
     </row>
     <row r="262" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -10433,19 +10420,19 @@
         <v>261</v>
       </c>
       <c r="B262" s="10" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
       <c r="C262" s="10" t="s">
-        <v>1185</v>
+        <v>1182</v>
       </c>
       <c r="D262" s="10" t="s">
+        <v>1184</v>
+      </c>
+      <c r="E262" s="10" t="s">
         <v>1187</v>
       </c>
-      <c r="E262" s="10" t="s">
-        <v>1190</v>
-      </c>
       <c r="F262" s="10" t="s">
-        <v>1191</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="263" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -10453,19 +10440,19 @@
         <v>262</v>
       </c>
       <c r="B263" s="10" t="s">
-        <v>1192</v>
+        <v>1189</v>
       </c>
       <c r="C263" s="10" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="D263" s="10" t="s">
+        <v>1200</v>
+      </c>
+      <c r="E263" s="10" t="s">
+        <v>1217</v>
+      </c>
+      <c r="F263" s="10" t="s">
         <v>1203</v>
-      </c>
-      <c r="E263" s="10" t="s">
-        <v>1220</v>
-      </c>
-      <c r="F263" s="10" t="s">
-        <v>1206</v>
       </c>
     </row>
     <row r="264" spans="1:6" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
@@ -10473,19 +10460,19 @@
         <v>263</v>
       </c>
       <c r="B264" s="10" t="s">
-        <v>1194</v>
+        <v>1191</v>
       </c>
       <c r="C264" s="15" t="s">
-        <v>1202</v>
+        <v>1199</v>
       </c>
       <c r="D264" s="10" t="s">
-        <v>1201</v>
+        <v>1198</v>
       </c>
       <c r="E264" s="15" t="s">
-        <v>1207</v>
+        <v>1204</v>
       </c>
       <c r="F264" s="10" t="s">
-        <v>1208</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="265" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -10493,19 +10480,19 @@
         <v>264</v>
       </c>
       <c r="B265" s="10" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C265" s="10" t="s">
         <v>1195</v>
       </c>
-      <c r="C265" s="10" t="s">
-        <v>1198</v>
-      </c>
       <c r="D265" s="10" t="s">
-        <v>1200</v>
+        <v>1197</v>
       </c>
       <c r="E265" s="10" t="s">
-        <v>1221</v>
+        <v>1218</v>
       </c>
       <c r="F265" s="10" t="s">
-        <v>1209</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="266" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -10513,320 +10500,320 @@
         <v>265</v>
       </c>
       <c r="B266" s="10" t="s">
-        <v>1196</v>
+        <v>1193</v>
       </c>
       <c r="C266" s="10" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
       <c r="D266" s="10" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
       <c r="E266" s="10" t="s">
-        <v>1210</v>
+        <v>1207</v>
       </c>
       <c r="F266" s="10" t="s">
-        <v>1204</v>
+        <v>1201</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B168:E169 B1:E3 B154:E155 B97:E152 B69:E72 B5:E6 B17:E29 B179:E194 B211:D211 B217:E218 B75:E84 B257:E257 D253:E253 C243:E248 B259:C259 B8:E14 B7:D7 B15:D15 B31:E38 B30:D30 B40:E46 B39:D39 B48:E66 B47:D47 B86:E88 B85:D85 B157:E159 B156:D156 B161:E161 B160:D160 B164:E166 B162:D163 B202:E205 B207:E207 B206:D206 B214:D216 B220:E220 B219:D219 B222:E222 B221:D221 B224:E225 B223:D223 B227:E230 B226:D226 B233:E233 B231:D232 B235:E235 B234:D234 B237:E239 B236:D236 C242:D242 C250:E251 C249:D249 D252 D256:E256 D254:D255 B260 B261:E1048576 B89:D89 B196:E199 B195:D195 B200:D201 B241:E241 B240:D240 B258:D258">
-    <cfRule type="cellIs" dxfId="62" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="64" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B167:E167">
-    <cfRule type="cellIs" dxfId="61" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="63" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B171:E172">
-    <cfRule type="cellIs" dxfId="60" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="62" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B153:D153">
-    <cfRule type="cellIs" dxfId="59" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="61" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B173:D173 B174 D174:E174">
-    <cfRule type="cellIs" dxfId="58" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="60" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B175:E175 B176 D176">
-    <cfRule type="cellIs" dxfId="57" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="59" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B177:E177 B178:D178">
-    <cfRule type="cellIs" dxfId="56" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="58" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C176">
-    <cfRule type="cellIs" dxfId="55" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="57" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C174">
-    <cfRule type="cellIs" dxfId="54" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="56" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B90:E90">
-    <cfRule type="cellIs" dxfId="53" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="55" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B91:D93">
-    <cfRule type="cellIs" dxfId="52" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="54" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E91:E92">
-    <cfRule type="cellIs" dxfId="51" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="53" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B94:D94 B96:D96">
-    <cfRule type="cellIs" dxfId="50" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="52" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E96">
-    <cfRule type="cellIs" dxfId="49" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="51" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:E4">
-    <cfRule type="cellIs" dxfId="48" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="50" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B67:E68">
-    <cfRule type="cellIs" dxfId="47" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="49" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B208:E209">
-    <cfRule type="cellIs" dxfId="46" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="48" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B73:D74">
-    <cfRule type="cellIs" dxfId="45" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="47" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E74">
-    <cfRule type="cellIs" dxfId="44" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="46" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E73">
-    <cfRule type="cellIs" dxfId="43" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="45" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16:D16">
-    <cfRule type="cellIs" dxfId="42" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="44" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E93">
-    <cfRule type="cellIs" dxfId="41" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="43" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B207:E207">
-    <cfRule type="cellIs" dxfId="40" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="42" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B206:D206">
-    <cfRule type="cellIs" dxfId="39" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="41" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F168:F169 F1:F3 F154:F166 F97:F152 F69:F72 F5:F15 F75:F89 F17:F66 F179:F207 F211 F214:F258 F261:F1048576">
-    <cfRule type="cellIs" dxfId="38" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="40" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F167">
-    <cfRule type="cellIs" dxfId="37" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="39" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F171:F172">
-    <cfRule type="cellIs" dxfId="36" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="38" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F153">
-    <cfRule type="cellIs" dxfId="35" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="37" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F173:F174">
-    <cfRule type="cellIs" dxfId="34" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="36" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F175:F176">
-    <cfRule type="cellIs" dxfId="33" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="35" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F177:F178">
-    <cfRule type="cellIs" dxfId="32" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="34" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F90">
-    <cfRule type="cellIs" dxfId="31" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="33" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F91:F93">
-    <cfRule type="cellIs" dxfId="30" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="32" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F94 F96">
-    <cfRule type="cellIs" dxfId="29" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="31" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="cellIs" dxfId="28" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="30" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F67:F68">
-    <cfRule type="cellIs" dxfId="27" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="29" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F208:F209">
-    <cfRule type="cellIs" dxfId="26" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="28" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F73:F74">
-    <cfRule type="cellIs" dxfId="25" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="27" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="cellIs" dxfId="24" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="26" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F207">
-    <cfRule type="cellIs" dxfId="23" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="25" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F206">
-    <cfRule type="cellIs" dxfId="22" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="24" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B212:E212">
-    <cfRule type="cellIs" dxfId="21" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="22" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F212">
-    <cfRule type="cellIs" dxfId="20" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="20" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B210:E210">
-    <cfRule type="cellIs" dxfId="19" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F210">
-    <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="18" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B170:D170">
-    <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="17" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F170">
-    <cfRule type="cellIs" dxfId="16" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B95:D95">
-    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E95">
-    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F95">
-    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B213:D213">
-    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F213">
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C252:C256">
-    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B242:B251">
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B252:B256">
-    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D259">
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F259">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E153">
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C260 E260">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D260 F260">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/server/corelib/lang/all_lang_V1.8.xlsx
+++ b/server/corelib/lang/all_lang_V1.8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\digiCenter\server\corelib\lang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A56147F5-9103-4A2A-BBD7-E84BEC8C9AD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC89CD90-DC7D-4678-AAAA-BE638F951946}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1330" uniqueCount="1228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1355" uniqueCount="1248">
   <si>
     <t>name</t>
   </si>
@@ -3113,9 +3113,6 @@
     <t>流程准备程序</t>
   </si>
   <si>
-    <t>Sequence Teardown</t>
-  </si>
-  <si>
     <t>流程结束程序</t>
   </si>
   <si>
@@ -3529,10 +3526,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>loop id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>loop counts</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3851,9 +3844,6 @@
     <t>Anzahl der Messungen</t>
   </si>
   <si>
-    <t>Schleifen id</t>
-  </si>
-  <si>
     <t>Schleifen Farbe</t>
   </si>
   <si>
@@ -3901,9 +3891,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Ca.. Bereiche von Zeit und Temperatur</t>
-  </si>
-  <si>
     <t>预估时间与温度范围</t>
   </si>
   <si>
@@ -3947,10 +3934,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Go Teardown?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>teardown_error_title</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3967,10 +3950,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Go Teardown Step</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>流程結束程序</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3983,11 +3962,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Error During Test!
-Do you want to execute teardown step (heating process)?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>執行流程結束程序?</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -4002,10 +3976,6 @@
     <t>执行流程结束程序?</t>
   </si>
   <si>
-    <t>Fehler beim Test!
-Wollen Sie Teardown Schritt (Heizprozess) auszuführen?</t>
-  </si>
-  <si>
     <t>发生错误! 是否要执行流程结束程序(加热程序)</t>
   </si>
   <si>
@@ -4040,18 +4010,6 @@
   </si>
   <si>
     <t>Test Stoppen</t>
-  </si>
-  <si>
-    <t>Sequenz Teardown</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Go Sequenz Teardown?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Go Sequenz Teardown</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>MearPos Guide</t>
@@ -4084,6 +4042,129 @@
   </si>
   <si>
     <t>请新增使用者权限后按下'新增'</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sequence Shutdown procedure</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sequenz Abschalt Prozess</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Go Abschalt Prozess?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Go Shutdown Procedure?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fehler beim Test!
+Wollen Sie Abschalt Prozess (Heizprozess) auszuführen?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Error During Test!
+Do you want to execute Shutdown Procedure (heating process)?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Go Shutdown Procedure</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Go Abschalt Prozess</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>settling_time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>settling time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>穩定時間</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Einschwingzeit</t>
+  </si>
+  <si>
+    <t>稳定时间</t>
+  </si>
+  <si>
+    <t>Ca. Bereiche von Zeit und Temperatur</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lower_letter_hard</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lower_letter_temperature</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lower_letter_humidity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hardness</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>temperature</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>humidity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>härte</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>temperatur</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>feuchtigkeit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lower_letter_time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>時間</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zeit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>等待时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间</t>
+  </si>
+  <si>
+    <t>loop ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Schleifen ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4223,23 +4304,113 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="61">
+  <dxfs count="70">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -5184,10 +5355,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F266"/>
+  <dimension ref="A1:F271"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A204" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D225" sqref="D225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5329,7 +5500,7 @@
         <v>580</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>739</v>
@@ -5489,7 +5660,7 @@
         <v>225</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>225</v>
@@ -5509,7 +5680,7 @@
         <v>697</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>744</v>
@@ -5783,16 +5954,16 @@
         <v>24</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>1165</v>
+        <v>1162</v>
       </c>
       <c r="D30" s="12" t="s">
+        <v>1164</v>
+      </c>
+      <c r="E30" s="12" t="s">
         <v>1167</v>
       </c>
-      <c r="E30" s="12" t="s">
-        <v>1170</v>
-      </c>
       <c r="F30" s="12" t="s">
-        <v>1171</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -5803,16 +5974,16 @@
         <v>25</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>1168</v>
+        <v>1165</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>1172</v>
+        <v>1169</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>1173</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -5969,7 +6140,7 @@
         <v>241</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>241</v>
@@ -6226,7 +6397,7 @@
         <v>150</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>1225</v>
+        <v>1214</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>345</v>
@@ -6246,13 +6417,13 @@
         <v>151</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>1226</v>
+        <v>1215</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>346</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>1227</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -6889,7 +7060,7 @@
         <v>479</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="F85" s="4" t="s">
         <v>795</v>
@@ -6943,13 +7114,13 @@
         <v>443</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="D88" s="4" t="s">
         <v>482</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="F88" s="4" t="s">
         <v>798</v>
@@ -6963,16 +7134,16 @@
         <v>444</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>1208</v>
+        <v>1200</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -7049,7 +7220,7 @@
         <v>587</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>1224</v>
+        <v>1213</v>
       </c>
       <c r="F93" s="5" t="s">
         <v>802</v>
@@ -7060,16 +7231,16 @@
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C94" s="1" t="s">
         <v>1027</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>1028</v>
       </c>
       <c r="D94" s="4" t="s">
         <v>586</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="F94" s="4" t="s">
         <v>803</v>
@@ -7086,13 +7257,13 @@
         <v>583</v>
       </c>
       <c r="D95" s="4" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E95" s="1" t="s">
         <v>1029</v>
       </c>
-      <c r="E95" s="1" t="s">
+      <c r="F95" s="4" t="s">
         <v>1030</v>
-      </c>
-      <c r="F95" s="4" t="s">
-        <v>1031</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -7689,7 +7860,7 @@
         <v>279</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>1209</v>
+        <v>1201</v>
       </c>
       <c r="F125" s="1" t="s">
         <v>825</v>
@@ -7789,7 +7960,7 @@
         <v>284</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>1210</v>
+        <v>1202</v>
       </c>
       <c r="F130" s="1" t="s">
         <v>830</v>
@@ -8243,13 +8414,13 @@
         <v>516</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
       <c r="D153" s="1" t="s">
         <v>517</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>1211</v>
+        <v>1203</v>
       </c>
       <c r="F153" s="1" t="s">
         <v>852</v>
@@ -8309,7 +8480,7 @@
         <v>307</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="F156" s="1" t="s">
         <v>855</v>
@@ -8389,7 +8560,7 @@
         <v>311</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>1212</v>
+        <v>1204</v>
       </c>
       <c r="F160" s="1" t="s">
         <v>859</v>
@@ -8429,7 +8600,7 @@
         <v>313</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="F162" s="1" t="s">
         <v>861</v>
@@ -8449,7 +8620,7 @@
         <v>314</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="F163" s="1" t="s">
         <v>862</v>
@@ -8503,16 +8674,16 @@
         <v>495</v>
       </c>
       <c r="C166" s="1" t="s">
+        <v>975</v>
+      </c>
+      <c r="D166" s="1" t="s">
         <v>976</v>
       </c>
-      <c r="D166" s="1" t="s">
+      <c r="E166" s="1" t="s">
         <v>977</v>
       </c>
-      <c r="E166" s="1" t="s">
+      <c r="F166" s="1" t="s">
         <v>978</v>
-      </c>
-      <c r="F166" s="1" t="s">
-        <v>979</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
@@ -8580,19 +8751,19 @@
         <v>169</v>
       </c>
       <c r="B170" s="3" t="s">
+        <v>971</v>
+      </c>
+      <c r="C170" s="1" t="s">
         <v>972</v>
       </c>
-      <c r="C170" s="1" t="s">
+      <c r="D170" s="1" t="s">
         <v>973</v>
       </c>
-      <c r="D170" s="1" t="s">
+      <c r="E170" s="1" t="s">
+        <v>1143</v>
+      </c>
+      <c r="F170" s="1" t="s">
         <v>974</v>
-      </c>
-      <c r="E170" s="1" t="s">
-        <v>1145</v>
-      </c>
-      <c r="F170" s="1" t="s">
-        <v>975</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
@@ -8649,7 +8820,7 @@
         <v>521</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="F173" s="1" t="s">
         <v>870</v>
@@ -8709,7 +8880,7 @@
         <v>522</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="F176" s="1" t="s">
         <v>871</v>
@@ -8749,7 +8920,7 @@
         <v>522</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="F178" s="1" t="s">
         <v>871</v>
@@ -9080,19 +9251,19 @@
         <v>194</v>
       </c>
       <c r="B195" s="1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C195" s="1" t="s">
         <v>1017</v>
       </c>
-      <c r="C195" s="1" t="s">
+      <c r="D195" s="1" t="s">
         <v>1018</v>
       </c>
-      <c r="D195" s="1" t="s">
+      <c r="E195" s="1" t="s">
+        <v>1205</v>
+      </c>
+      <c r="F195" s="1" t="s">
         <v>1019</v>
-      </c>
-      <c r="E195" s="1" t="s">
-        <v>1213</v>
-      </c>
-      <c r="F195" s="1" t="s">
-        <v>1020</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
@@ -9189,7 +9360,7 @@
         <v>662</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>1214</v>
+        <v>1206</v>
       </c>
       <c r="F200" s="1" t="s">
         <v>794</v>
@@ -9209,7 +9380,7 @@
         <v>664</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>1215</v>
+        <v>1207</v>
       </c>
       <c r="F201" s="1" t="s">
         <v>795</v>
@@ -9309,7 +9480,7 @@
         <v>730</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="F206" s="6" t="s">
         <v>899</v>
@@ -9380,19 +9551,19 @@
         <v>209</v>
       </c>
       <c r="B210" s="1" t="s">
+        <v>966</v>
+      </c>
+      <c r="C210" s="1" t="s">
         <v>967</v>
       </c>
-      <c r="C210" s="1" t="s">
+      <c r="D210" s="4" t="s">
         <v>968</v>
       </c>
-      <c r="D210" s="4" t="s">
+      <c r="E210" s="3" t="s">
         <v>969</v>
       </c>
-      <c r="E210" s="3" t="s">
+      <c r="F210" s="4" t="s">
         <v>970</v>
-      </c>
-      <c r="F210" s="4" t="s">
-        <v>971</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
@@ -9409,7 +9580,7 @@
         <v>908</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="F211" s="4" t="s">
         <v>910</v>
@@ -9440,19 +9611,19 @@
         <v>212</v>
       </c>
       <c r="B213" s="1" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C213" s="1" t="s">
         <v>1032</v>
       </c>
-      <c r="C213" s="1" t="s">
+      <c r="D213" s="4" t="s">
         <v>1033</v>
       </c>
-      <c r="D213" s="4" t="s">
+      <c r="E213" s="1" t="s">
+        <v>1148</v>
+      </c>
+      <c r="F213" s="4" t="s">
         <v>1034</v>
-      </c>
-      <c r="E213" s="1" t="s">
-        <v>1150</v>
-      </c>
-      <c r="F213" s="4" t="s">
-        <v>1035</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
@@ -9469,7 +9640,7 @@
         <v>917</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="F214" s="1" t="s">
         <v>918</v>
@@ -9489,7 +9660,7 @@
         <v>919</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="F215" s="1" t="s">
         <v>920</v>
@@ -9509,7 +9680,7 @@
         <v>925</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="F216" s="1" t="s">
         <v>926</v>
@@ -9569,7 +9740,7 @@
         <v>938</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="F219" s="1" t="s">
         <v>939</v>
@@ -9609,7 +9780,7 @@
         <v>952</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="F221" s="1" t="s">
         <v>953</v>
@@ -9623,16 +9794,16 @@
         <v>943</v>
       </c>
       <c r="C222" s="1" t="s">
+        <v>1217</v>
+      </c>
+      <c r="D222" s="1" t="s">
+        <v>1190</v>
+      </c>
+      <c r="E222" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="F222" s="1" t="s">
         <v>954</v>
-      </c>
-      <c r="D222" s="1" t="s">
-        <v>1196</v>
-      </c>
-      <c r="E222" s="1" t="s">
-        <v>1216</v>
-      </c>
-      <c r="F222" s="1" t="s">
-        <v>955</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
@@ -9649,7 +9820,7 @@
         <v>244</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="F223" s="1" t="s">
         <v>763</v>
@@ -9666,10 +9837,10 @@
         <v>948</v>
       </c>
       <c r="D224" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="E224" s="1" t="s">
         <v>956</v>
-      </c>
-      <c r="E224" s="1" t="s">
-        <v>957</v>
       </c>
       <c r="F224" s="1" t="s">
         <v>779</v>
@@ -9680,19 +9851,19 @@
         <v>224</v>
       </c>
       <c r="B225" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="C225" s="1" t="s">
         <v>958</v>
       </c>
-      <c r="C225" s="1" t="s">
+      <c r="D225" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="E225" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="F225" s="1" t="s">
         <v>959</v>
-      </c>
-      <c r="D225" s="1" t="s">
-        <v>962</v>
-      </c>
-      <c r="E225" s="1" t="s">
-        <v>961</v>
-      </c>
-      <c r="F225" s="1" t="s">
-        <v>960</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
@@ -9700,19 +9871,19 @@
         <v>225</v>
       </c>
       <c r="B226" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="D226" s="1" t="s">
         <v>963</v>
       </c>
-      <c r="C226" s="1" t="s">
-        <v>966</v>
-      </c>
-      <c r="D226" s="1" t="s">
+      <c r="E226" s="1" t="s">
+        <v>1208</v>
+      </c>
+      <c r="F226" s="1" t="s">
         <v>964</v>
-      </c>
-      <c r="E226" s="1" t="s">
-        <v>1219</v>
-      </c>
-      <c r="F226" s="1" t="s">
-        <v>965</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
@@ -9720,19 +9891,19 @@
         <v>226</v>
       </c>
       <c r="B227" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="C227" s="1" t="s">
         <v>980</v>
       </c>
-      <c r="C227" s="1" t="s">
+      <c r="D227" s="6" t="s">
         <v>981</v>
       </c>
-      <c r="D227" s="6" t="s">
-        <v>982</v>
-      </c>
       <c r="E227" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="F227" s="1" t="s">
         <v>1000</v>
-      </c>
-      <c r="F227" s="1" t="s">
-        <v>1001</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
@@ -9740,19 +9911,19 @@
         <v>227</v>
       </c>
       <c r="B228" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="C228" s="1" t="s">
         <v>983</v>
       </c>
-      <c r="C228" s="1" t="s">
+      <c r="D228" s="1" t="s">
         <v>984</v>
       </c>
-      <c r="D228" s="1" t="s">
-        <v>985</v>
-      </c>
       <c r="E228" s="1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="F228" s="1" t="s">
         <v>1002</v>
-      </c>
-      <c r="F228" s="1" t="s">
-        <v>1003</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
@@ -9760,19 +9931,19 @@
         <v>228</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="C229" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="D229" s="1" t="s">
         <v>984</v>
       </c>
-      <c r="D229" s="1" t="s">
-        <v>985</v>
-      </c>
       <c r="E229" s="1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="F229" s="1" t="s">
         <v>1002</v>
-      </c>
-      <c r="F229" s="1" t="s">
-        <v>1003</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
@@ -9780,13 +9951,13 @@
         <v>229</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="C230" s="1" t="s">
+        <v>986</v>
+      </c>
+      <c r="D230" s="1" t="s">
         <v>987</v>
-      </c>
-      <c r="D230" s="1" t="s">
-        <v>988</v>
       </c>
       <c r="E230" s="1" t="s">
         <v>345</v>
@@ -9800,19 +9971,19 @@
         <v>230</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="C231" s="1" t="s">
+        <v>988</v>
+      </c>
+      <c r="D231" s="1" t="s">
         <v>989</v>
       </c>
-      <c r="D231" s="1" t="s">
-        <v>990</v>
-      </c>
       <c r="E231" s="1" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="F231" s="1" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
@@ -9820,19 +9991,19 @@
         <v>231</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="F232" s="1" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
@@ -9840,19 +10011,19 @@
         <v>232</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="E233" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F233" s="1" t="s">
         <v>1006</v>
-      </c>
-      <c r="F233" s="1" t="s">
-        <v>1007</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
@@ -9860,19 +10031,19 @@
         <v>233</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="C234" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="D234" s="1" t="s">
         <v>996</v>
       </c>
-      <c r="D234" s="1" t="s">
-        <v>997</v>
-      </c>
       <c r="E234" s="1" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="F234" s="1" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
@@ -9880,19 +10051,19 @@
         <v>234</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="C235" s="1" t="s">
         <v>440</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="E235" s="1" t="s">
         <v>326</v>
       </c>
       <c r="F235" s="1" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
@@ -9900,19 +10071,19 @@
         <v>235</v>
       </c>
       <c r="B236" s="1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C236" s="1" t="s">
         <v>1023</v>
       </c>
-      <c r="C236" s="1" t="s">
+      <c r="D236" s="1" t="s">
+        <v>1025</v>
+      </c>
+      <c r="E236" s="1" t="s">
+        <v>1158</v>
+      </c>
+      <c r="F236" s="1" t="s">
         <v>1024</v>
-      </c>
-      <c r="D236" s="1" t="s">
-        <v>1026</v>
-      </c>
-      <c r="E236" s="1" t="s">
-        <v>1160</v>
-      </c>
-      <c r="F236" s="1" t="s">
-        <v>1025</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
@@ -9920,16 +10091,16 @@
         <v>236</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="D237" s="6" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="F237" s="1" t="s">
         <v>741</v>
@@ -9940,19 +10111,19 @@
         <v>237</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="E238" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F238" s="1" t="s">
         <v>1046</v>
-      </c>
-      <c r="F238" s="1" t="s">
-        <v>1047</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
@@ -9960,19 +10131,19 @@
         <v>238</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="E239" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F239" s="1" t="s">
         <v>1048</v>
-      </c>
-      <c r="F239" s="1" t="s">
-        <v>1049</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
@@ -9980,19 +10151,19 @@
         <v>239</v>
       </c>
       <c r="B240" s="1" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C240" s="1" t="s">
         <v>1050</v>
       </c>
-      <c r="C240" s="1" t="s">
+      <c r="D240" s="1" t="s">
         <v>1051</v>
       </c>
-      <c r="D240" s="1" t="s">
+      <c r="E240" s="1" t="s">
+        <v>1209</v>
+      </c>
+      <c r="F240" s="1" t="s">
         <v>1052</v>
-      </c>
-      <c r="E240" s="1" t="s">
-        <v>1220</v>
-      </c>
-      <c r="F240" s="1" t="s">
-        <v>1053</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
@@ -10000,19 +10171,19 @@
         <v>240</v>
       </c>
       <c r="B241" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C241" s="1" t="s">
         <v>1054</v>
       </c>
-      <c r="C241" s="1" t="s">
+      <c r="D241" s="1" t="s">
         <v>1055</v>
       </c>
-      <c r="D241" s="1" t="s">
+      <c r="E241" s="1" t="s">
         <v>1056</v>
       </c>
-      <c r="E241" s="1" t="s">
+      <c r="F241" s="1" t="s">
         <v>1057</v>
-      </c>
-      <c r="F241" s="1" t="s">
-        <v>1058</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
@@ -10020,19 +10191,19 @@
         <v>241</v>
       </c>
       <c r="B242" s="1" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C242" s="1" t="s">
         <v>1059</v>
       </c>
-      <c r="C242" s="1" t="s">
-        <v>1060</v>
-      </c>
       <c r="D242" s="1" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="F242" s="1" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
@@ -10040,19 +10211,19 @@
         <v>242</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="F243" s="1" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
@@ -10060,19 +10231,19 @@
         <v>243</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="F244" s="1" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
@@ -10080,19 +10251,19 @@
         <v>244</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="F245" s="1" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
@@ -10100,19 +10271,19 @@
         <v>245</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="E246" s="1" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="F246" s="1" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
@@ -10120,19 +10291,19 @@
         <v>246</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="E247" s="1" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="F247" s="1" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
@@ -10140,19 +10311,19 @@
         <v>247</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="F248" s="1" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
@@ -10160,19 +10331,19 @@
         <v>248</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="F249" s="1" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
@@ -10180,19 +10351,19 @@
         <v>249</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="F250" s="1" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
@@ -10200,19 +10371,19 @@
         <v>250</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="C251" s="1" t="s">
+        <v>1086</v>
+      </c>
+      <c r="D251" s="1" t="s">
         <v>1088</v>
       </c>
-      <c r="D251" s="1" t="s">
-        <v>1090</v>
-      </c>
       <c r="E251" s="1" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="F251" s="1" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
@@ -10220,19 +10391,19 @@
         <v>251</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>1069</v>
+        <v>1246</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>1163</v>
+        <v>1247</v>
       </c>
       <c r="F252" s="1" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
@@ -10240,19 +10411,19 @@
         <v>252</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="F253" s="1" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
@@ -10260,19 +10431,19 @@
         <v>253</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>1164</v>
+        <v>1161</v>
       </c>
       <c r="F254" s="1" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
@@ -10280,19 +10451,19 @@
         <v>254</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>1221</v>
+        <v>1210</v>
       </c>
       <c r="F255" s="1" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
@@ -10300,19 +10471,19 @@
         <v>255</v>
       </c>
       <c r="B256" s="1" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C256" s="1" t="s">
         <v>1119</v>
       </c>
-      <c r="C256" s="1" t="s">
+      <c r="D256" s="6" t="s">
         <v>1121</v>
       </c>
-      <c r="D256" s="6" t="s">
+      <c r="E256" s="1" t="s">
         <v>1123</v>
       </c>
-      <c r="E256" s="1" t="s">
-        <v>1125</v>
-      </c>
       <c r="F256" s="1" t="s">
-        <v>1110</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
@@ -10320,504 +10491,649 @@
         <v>256</v>
       </c>
       <c r="B257" s="1" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C257" s="1" t="s">
         <v>1120</v>
       </c>
-      <c r="C257" s="1" t="s">
+      <c r="D257" s="1" t="s">
         <v>1122</v>
       </c>
-      <c r="D257" s="1" t="s">
+      <c r="E257" s="1" t="s">
         <v>1124</v>
       </c>
-      <c r="E257" s="1" t="s">
+      <c r="F257" s="1" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A258" s="2">
+        <v>257</v>
+      </c>
+      <c r="B258" s="15" t="s">
         <v>1126</v>
       </c>
-      <c r="F257" s="1" t="s">
+      <c r="C258" s="15" t="s">
+        <v>1128</v>
+      </c>
+      <c r="D258" s="15" t="s">
         <v>1127</v>
       </c>
-    </row>
-    <row r="258" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A258" s="16">
-        <v>257</v>
-      </c>
-      <c r="B258" s="17" t="s">
-        <v>1128</v>
-      </c>
-      <c r="C258" s="17" t="s">
+      <c r="E258" s="15" t="s">
+        <v>1211</v>
+      </c>
+      <c r="F258" s="15" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A259" s="2">
+        <v>258</v>
+      </c>
+      <c r="B259" s="15" t="s">
         <v>1130</v>
       </c>
-      <c r="D258" s="17" t="s">
-        <v>1129</v>
-      </c>
-      <c r="E258" s="17" t="s">
+      <c r="C259" s="15" t="s">
+        <v>1131</v>
+      </c>
+      <c r="D259" s="15" t="s">
+        <v>1132</v>
+      </c>
+      <c r="E259" s="15" t="s">
+        <v>1212</v>
+      </c>
+      <c r="F259" s="15" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A260" s="14">
+        <v>259</v>
+      </c>
+      <c r="B260" s="15" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C260" s="15" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D260" s="15" t="s">
+        <v>1172</v>
+      </c>
+      <c r="E260" s="15" t="s">
+        <v>1230</v>
+      </c>
+      <c r="F260" s="15" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A261" s="14">
+        <v>260</v>
+      </c>
+      <c r="B261" s="15" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C261" s="15" t="s">
+        <v>1177</v>
+      </c>
+      <c r="D261" s="16" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E261" s="15" t="s">
+        <v>1181</v>
+      </c>
+      <c r="F261" s="15" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A262" s="14">
+        <v>261</v>
+      </c>
+      <c r="B262" s="15" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C262" s="15" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D262" s="15" t="s">
+        <v>1180</v>
+      </c>
+      <c r="E262" s="15" t="s">
+        <v>1183</v>
+      </c>
+      <c r="F262" s="15" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A263" s="14">
+        <v>262</v>
+      </c>
+      <c r="B263" s="15" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C263" s="15" t="s">
+        <v>1220</v>
+      </c>
+      <c r="D263" s="15" t="s">
+        <v>1193</v>
+      </c>
+      <c r="E263" s="15" t="s">
+        <v>1219</v>
+      </c>
+      <c r="F263" s="15" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" s="15" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A264" s="14">
+        <v>263</v>
+      </c>
+      <c r="B264" s="15" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C264" s="17" t="s">
         <v>1222</v>
       </c>
-      <c r="F258" s="17" t="s">
-        <v>1131</v>
-      </c>
-    </row>
-    <row r="259" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A259" s="16">
-        <v>258</v>
-      </c>
-      <c r="B259" s="17" t="s">
-        <v>1132</v>
-      </c>
-      <c r="C259" s="17" t="s">
-        <v>1133</v>
-      </c>
-      <c r="D259" s="17" t="s">
-        <v>1134</v>
-      </c>
-      <c r="E259" s="17" t="s">
+      <c r="D264" s="15" t="s">
+        <v>1192</v>
+      </c>
+      <c r="E264" s="17" t="s">
+        <v>1221</v>
+      </c>
+      <c r="F264" s="15" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A265" s="14">
+        <v>264</v>
+      </c>
+      <c r="B265" s="15" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C265" s="15" t="s">
         <v>1223</v>
       </c>
-      <c r="F259" s="17" t="s">
-        <v>1135</v>
-      </c>
-    </row>
-    <row r="260" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A260" s="9">
-        <v>259</v>
-      </c>
-      <c r="B260" s="10" t="s">
-        <v>1174</v>
-      </c>
-      <c r="C260" s="10" t="s">
-        <v>1176</v>
-      </c>
-      <c r="D260" s="10" t="s">
-        <v>1175</v>
-      </c>
-      <c r="E260" s="10" t="s">
-        <v>1177</v>
-      </c>
-      <c r="F260" s="10" t="s">
-        <v>1178</v>
-      </c>
-    </row>
-    <row r="261" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A261" s="9">
-        <v>260</v>
-      </c>
-      <c r="B261" s="10" t="s">
-        <v>1179</v>
-      </c>
-      <c r="C261" s="10" t="s">
-        <v>1181</v>
-      </c>
-      <c r="D261" s="14" t="s">
-        <v>1183</v>
-      </c>
-      <c r="E261" s="10" t="s">
-        <v>1185</v>
-      </c>
-      <c r="F261" s="10" t="s">
-        <v>1186</v>
-      </c>
-    </row>
-    <row r="262" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A262" s="9">
-        <v>261</v>
-      </c>
-      <c r="B262" s="10" t="s">
-        <v>1180</v>
-      </c>
-      <c r="C262" s="10" t="s">
-        <v>1182</v>
-      </c>
-      <c r="D262" s="10" t="s">
-        <v>1184</v>
-      </c>
-      <c r="E262" s="10" t="s">
-        <v>1187</v>
-      </c>
-      <c r="F262" s="10" t="s">
+      <c r="D265" s="15" t="s">
+        <v>1191</v>
+      </c>
+      <c r="E265" s="15" t="s">
+        <v>1224</v>
+      </c>
+      <c r="F265" s="15" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A266" s="14">
+        <v>265</v>
+      </c>
+      <c r="B266" s="15" t="s">
         <v>1188</v>
       </c>
-    </row>
-    <row r="263" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A263" s="9">
-        <v>262</v>
-      </c>
-      <c r="B263" s="10" t="s">
+      <c r="C266" s="15" t="s">
         <v>1189</v>
       </c>
-      <c r="C263" s="10" t="s">
-        <v>1190</v>
-      </c>
-      <c r="D263" s="10" t="s">
-        <v>1200</v>
-      </c>
-      <c r="E263" s="10" t="s">
-        <v>1217</v>
-      </c>
-      <c r="F263" s="10" t="s">
-        <v>1203</v>
-      </c>
-    </row>
-    <row r="264" spans="1:6" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A264" s="9">
-        <v>263</v>
-      </c>
-      <c r="B264" s="10" t="s">
-        <v>1191</v>
-      </c>
-      <c r="C264" s="15" t="s">
+      <c r="D266" s="15" t="s">
+        <v>1195</v>
+      </c>
+      <c r="E266" s="15" t="s">
         <v>1199</v>
       </c>
-      <c r="D264" s="10" t="s">
-        <v>1198</v>
-      </c>
-      <c r="E264" s="15" t="s">
-        <v>1204</v>
-      </c>
-      <c r="F264" s="10" t="s">
-        <v>1205</v>
-      </c>
-    </row>
-    <row r="265" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A265" s="9">
-        <v>264</v>
-      </c>
-      <c r="B265" s="10" t="s">
-        <v>1192</v>
-      </c>
-      <c r="C265" s="10" t="s">
-        <v>1195</v>
-      </c>
-      <c r="D265" s="10" t="s">
-        <v>1197</v>
-      </c>
-      <c r="E265" s="10" t="s">
-        <v>1218</v>
-      </c>
-      <c r="F265" s="10" t="s">
-        <v>1206</v>
-      </c>
-    </row>
-    <row r="266" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A266" s="9">
-        <v>265</v>
-      </c>
-      <c r="B266" s="10" t="s">
-        <v>1193</v>
-      </c>
-      <c r="C266" s="10" t="s">
+      <c r="F266" s="15" t="s">
         <v>1194</v>
       </c>
-      <c r="D266" s="10" t="s">
-        <v>1202</v>
-      </c>
-      <c r="E266" s="10" t="s">
-        <v>1207</v>
-      </c>
-      <c r="F266" s="10" t="s">
-        <v>1201</v>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A267" s="14">
+        <v>266</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C267" s="1" t="s">
+        <v>1226</v>
+      </c>
+      <c r="D267" s="1" t="s">
+        <v>1227</v>
+      </c>
+      <c r="E267" s="1" t="s">
+        <v>1228</v>
+      </c>
+      <c r="F267" s="1" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A268" s="14">
+        <v>267</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C268" s="1" t="s">
+        <v>1234</v>
+      </c>
+      <c r="D268" s="4" t="s">
+        <v>682</v>
+      </c>
+      <c r="E268" s="3" t="s">
+        <v>1237</v>
+      </c>
+      <c r="F268" s="4" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A269" s="14">
+        <v>268</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>1232</v>
+      </c>
+      <c r="C269" s="1" t="s">
+        <v>1235</v>
+      </c>
+      <c r="D269" s="4" t="s">
+        <v>683</v>
+      </c>
+      <c r="E269" s="3" t="s">
+        <v>1238</v>
+      </c>
+      <c r="F269" s="4" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A270" s="14">
+        <v>269</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>1233</v>
+      </c>
+      <c r="C270" s="1" t="s">
+        <v>1236</v>
+      </c>
+      <c r="D270" s="4" t="s">
+        <v>968</v>
+      </c>
+      <c r="E270" s="3" t="s">
+        <v>1239</v>
+      </c>
+      <c r="F270" s="4" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A271" s="14">
+        <v>270</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="C271" s="1" t="s">
+        <v>1241</v>
+      </c>
+      <c r="D271" s="4" t="s">
+        <v>1242</v>
+      </c>
+      <c r="E271" s="3" t="s">
+        <v>1243</v>
+      </c>
+      <c r="F271" s="4" t="s">
+        <v>1245</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="B168:E169 B1:E3 B154:E155 B97:E152 B69:E72 B5:E6 B17:E29 B179:E194 B211:D211 B217:E218 B75:E84 B257:E257 D253:E253 C243:E248 B259:C259 B8:E14 B7:D7 B15:D15 B31:E38 B30:D30 B40:E46 B39:D39 B48:E66 B47:D47 B86:E88 B85:D85 B157:E159 B156:D156 B161:E161 B160:D160 B164:E166 B162:D163 B202:E205 B207:E207 B206:D206 B214:D216 B220:E220 B219:D219 B222:E222 B221:D221 B224:E225 B223:D223 B227:E230 B226:D226 B233:E233 B231:D232 B235:E235 B234:D234 B237:E239 B236:D236 C242:D242 C250:E251 C249:D249 D252 D256:E256 D254:D255 B260 B261:E1048576 B89:D89 B196:E199 B195:D195 B200:D201 B241:E241 B240:D240 B258:D258">
+  <conditionalFormatting sqref="B168:E169 B1:E3 B154:E155 B97:E152 B69:E72 B5:E6 B17:E29 B179:E194 B211:D211 B217:E218 B75:E84 B257:E257 D253:E253 C243:E248 B259:C259 B8:E14 B7:D7 B15:D15 B31:E38 B30:D30 B40:E46 B39:D39 B48:E66 B47:D47 B86:E88 B85:D85 B157:E159 B156:D156 B161:E161 B160:D160 B164:E166 B162:D163 B202:E205 B207:E207 B206:D206 B214:D216 B220:E220 B219:D219 B222:E222 B221:D221 B224:E225 B223:D223 B227:E230 B226:D226 B233:E233 B231:D232 B235:E235 B234:D234 B237:E239 B236:D236 C242:D242 C250:E251 C249:D249 D252 D256:E256 D254:D255 B260 B261:E266 B89:D89 B196:E199 B195:D195 B200:D201 B241:E241 B240:D240 B258:D258 B272:E1048576">
+    <cfRule type="cellIs" dxfId="69" priority="73" operator="equal">
+      <formula>"TBD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B167:E167">
+    <cfRule type="cellIs" dxfId="68" priority="72" operator="equal">
+      <formula>"TBD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B171:E172">
+    <cfRule type="cellIs" dxfId="67" priority="71" operator="equal">
+      <formula>"TBD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B153:D153">
+    <cfRule type="cellIs" dxfId="66" priority="70" operator="equal">
+      <formula>"TBD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B173:D173 B174 D174:E174">
+    <cfRule type="cellIs" dxfId="65" priority="69" operator="equal">
+      <formula>"TBD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B175:E175 B176 D176">
+    <cfRule type="cellIs" dxfId="64" priority="68" operator="equal">
+      <formula>"TBD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B177:E177 B178:D178">
+    <cfRule type="cellIs" dxfId="63" priority="67" operator="equal">
+      <formula>"TBD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C176">
+    <cfRule type="cellIs" dxfId="62" priority="66" operator="equal">
+      <formula>"TBD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C174">
+    <cfRule type="cellIs" dxfId="61" priority="65" operator="equal">
+      <formula>"TBD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B90:E90">
     <cfRule type="cellIs" dxfId="60" priority="64" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B167:E167">
+  <conditionalFormatting sqref="B91:D93">
     <cfRule type="cellIs" dxfId="59" priority="63" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B171:E172">
+  <conditionalFormatting sqref="E91:E92">
     <cfRule type="cellIs" dxfId="58" priority="62" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B153:D153">
+  <conditionalFormatting sqref="B94:D94 B96:D96">
     <cfRule type="cellIs" dxfId="57" priority="61" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B173:D173 B174 D174:E174">
+  <conditionalFormatting sqref="E96">
     <cfRule type="cellIs" dxfId="56" priority="60" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B175:E175 B176 D176">
+  <conditionalFormatting sqref="B4:E4">
     <cfRule type="cellIs" dxfId="55" priority="59" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B177:E177 B178:D178">
+  <conditionalFormatting sqref="B67:E68">
     <cfRule type="cellIs" dxfId="54" priority="58" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C176">
+  <conditionalFormatting sqref="B208:E209">
     <cfRule type="cellIs" dxfId="53" priority="57" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C174">
+  <conditionalFormatting sqref="B73:D74">
     <cfRule type="cellIs" dxfId="52" priority="56" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B90:E90">
+  <conditionalFormatting sqref="E74">
     <cfRule type="cellIs" dxfId="51" priority="55" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B91:D93">
+  <conditionalFormatting sqref="E73">
     <cfRule type="cellIs" dxfId="50" priority="54" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E91:E92">
+  <conditionalFormatting sqref="B16:D16">
     <cfRule type="cellIs" dxfId="49" priority="53" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B94:D94 B96:D96">
+  <conditionalFormatting sqref="E93">
     <cfRule type="cellIs" dxfId="48" priority="52" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E96">
+  <conditionalFormatting sqref="B207:E207">
     <cfRule type="cellIs" dxfId="47" priority="51" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:E4">
+  <conditionalFormatting sqref="B206:D206">
     <cfRule type="cellIs" dxfId="46" priority="50" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B67:E68">
+  <conditionalFormatting sqref="F168:F169 F1:F3 F154:F166 F97:F152 F69:F72 F5:F15 F75:F89 F17:F66 F179:F207 F211 F214:F258 F261:F266 F272:F1048576">
     <cfRule type="cellIs" dxfId="45" priority="49" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B208:E209">
+  <conditionalFormatting sqref="F167">
     <cfRule type="cellIs" dxfId="44" priority="48" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B73:D74">
+  <conditionalFormatting sqref="F171:F172">
     <cfRule type="cellIs" dxfId="43" priority="47" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E74">
+  <conditionalFormatting sqref="F153">
     <cfRule type="cellIs" dxfId="42" priority="46" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E73">
+  <conditionalFormatting sqref="F173:F174">
     <cfRule type="cellIs" dxfId="41" priority="45" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B16:D16">
+  <conditionalFormatting sqref="F175:F176">
     <cfRule type="cellIs" dxfId="40" priority="44" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E93">
+  <conditionalFormatting sqref="F177:F178">
     <cfRule type="cellIs" dxfId="39" priority="43" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B207:E207">
+  <conditionalFormatting sqref="F90">
     <cfRule type="cellIs" dxfId="38" priority="42" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B206:D206">
+  <conditionalFormatting sqref="F91:F93">
     <cfRule type="cellIs" dxfId="37" priority="41" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F168:F169 F1:F3 F154:F166 F97:F152 F69:F72 F5:F15 F75:F89 F17:F66 F179:F207 F211 F214:F258 F261:F1048576">
+  <conditionalFormatting sqref="F94 F96">
     <cfRule type="cellIs" dxfId="36" priority="40" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F167">
+  <conditionalFormatting sqref="F4">
     <cfRule type="cellIs" dxfId="35" priority="39" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F171:F172">
+  <conditionalFormatting sqref="F67:F68">
     <cfRule type="cellIs" dxfId="34" priority="38" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F153">
+  <conditionalFormatting sqref="F208:F209">
     <cfRule type="cellIs" dxfId="33" priority="37" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F173:F174">
+  <conditionalFormatting sqref="F73:F74">
     <cfRule type="cellIs" dxfId="32" priority="36" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F175:F176">
+  <conditionalFormatting sqref="F16">
     <cfRule type="cellIs" dxfId="31" priority="35" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F177:F178">
+  <conditionalFormatting sqref="F207">
     <cfRule type="cellIs" dxfId="30" priority="34" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F90">
+  <conditionalFormatting sqref="F206">
     <cfRule type="cellIs" dxfId="29" priority="33" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F91:F93">
-    <cfRule type="cellIs" dxfId="28" priority="32" operator="equal">
-      <formula>"TBD"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F94 F96">
-    <cfRule type="cellIs" dxfId="27" priority="31" operator="equal">
-      <formula>"TBD"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F4">
-    <cfRule type="cellIs" dxfId="26" priority="30" operator="equal">
-      <formula>"TBD"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F67:F68">
-    <cfRule type="cellIs" dxfId="25" priority="29" operator="equal">
-      <formula>"TBD"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F208:F209">
-    <cfRule type="cellIs" dxfId="24" priority="28" operator="equal">
-      <formula>"TBD"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F73:F74">
-    <cfRule type="cellIs" dxfId="23" priority="27" operator="equal">
-      <formula>"TBD"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F16">
-    <cfRule type="cellIs" dxfId="22" priority="26" operator="equal">
-      <formula>"TBD"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F207">
-    <cfRule type="cellIs" dxfId="21" priority="25" operator="equal">
-      <formula>"TBD"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F206">
-    <cfRule type="cellIs" dxfId="20" priority="24" operator="equal">
-      <formula>"TBD"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B212:E212">
-    <cfRule type="cellIs" dxfId="19" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="31" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F212">
+    <cfRule type="cellIs" dxfId="27" priority="29" operator="equal">
+      <formula>"TBD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B210:E210">
+    <cfRule type="cellIs" dxfId="26" priority="28" operator="equal">
+      <formula>"TBD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F210">
+    <cfRule type="cellIs" dxfId="25" priority="27" operator="equal">
+      <formula>"TBD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B170:D170">
+    <cfRule type="cellIs" dxfId="24" priority="26" operator="equal">
+      <formula>"TBD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F170">
+    <cfRule type="cellIs" dxfId="23" priority="25" operator="equal">
+      <formula>"TBD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B95:D95">
+    <cfRule type="cellIs" dxfId="22" priority="24" operator="equal">
+      <formula>"TBD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E95">
+    <cfRule type="cellIs" dxfId="21" priority="23" operator="equal">
+      <formula>"TBD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F95">
+    <cfRule type="cellIs" dxfId="20" priority="22" operator="equal">
+      <formula>"TBD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B213:D213">
+    <cfRule type="cellIs" dxfId="19" priority="21" operator="equal">
+      <formula>"TBD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F213">
     <cfRule type="cellIs" dxfId="18" priority="20" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B210:E210">
+  <conditionalFormatting sqref="C252:C256">
     <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F210">
+  <conditionalFormatting sqref="B242:B251">
     <cfRule type="cellIs" dxfId="16" priority="18" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B170:D170">
+  <conditionalFormatting sqref="B252:B256">
     <cfRule type="cellIs" dxfId="15" priority="17" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F170">
-    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
+  <conditionalFormatting sqref="D259">
+    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B95:D95">
-    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
+  <conditionalFormatting sqref="F259">
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E95">
-    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
+  <conditionalFormatting sqref="E153">
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F95">
-    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
+  <conditionalFormatting sqref="C260 E260">
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B213:D213">
-    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
+  <conditionalFormatting sqref="D260 F260">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F213">
-    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
+  <conditionalFormatting sqref="E160">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C252:C256">
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
+  <conditionalFormatting sqref="C267:D267">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B242:B251">
-    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
+  <conditionalFormatting sqref="F267">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B252:B256">
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
+  <conditionalFormatting sqref="B267">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D259">
+  <conditionalFormatting sqref="B268:E269">
     <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F259">
+  <conditionalFormatting sqref="F268:F269">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E153">
+  <conditionalFormatting sqref="B270:E270">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C260 E260">
+  <conditionalFormatting sqref="F270">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D260 F260">
+  <conditionalFormatting sqref="B271:E271">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E160">
+  <conditionalFormatting sqref="F271">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
